--- a/check_mmlu_pro_quality/data/translate_0406/sample_0407_view.xlsx
+++ b/check_mmlu_pro_quality/data/translate_0406/sample_0407_view.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/check_mmlu_pro_quality/data/translate_0406/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECEF489-E258-A441-9EB2-511D6622D54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF8DF66-91E9-5F4B-9AEB-0EE2761D2DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sample_0406的副本!$A$1:$E$1680</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26689,8 +26702,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E1680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C606" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C608" sqref="C608"/>
+    <sheetView tabSelected="1" topLeftCell="A643" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B644" sqref="B644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="19"/>
@@ -37004,20 +37017,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="1:5" s="2" customFormat="1" ht="140">
-      <c r="A607" s="2" t="s">
+    <row r="607" spans="1:5" ht="140">
+      <c r="A607" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B607" s="2" t="s">
+      <c r="B607" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="C607" s="2" t="s">
+      <c r="C607" s="1" t="s">
         <v>1254</v>
       </c>
       <c r="D607" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="E607" s="2" t="s">
+      <c r="E607" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/check_mmlu_pro_quality/data/translate_0406/sample_0407_view.xlsx
+++ b/check_mmlu_pro_quality/data/translate_0406/sample_0407_view.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/server/MMLU/git/robust_mmlu/check_mmlu_pro_quality/data/translate_0406/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF8DF66-91E9-5F4B-9AEB-0EE2761D2DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C8FA2D-AB10-FB4D-8B01-B9056CEB2976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22554,14 +22554,6 @@
 D. 40秒</t>
   </si>
   <si>
-    <t xml:space="preserve">How must a polarizer and an analyzer be oriented so that a beam of natural light is reduced to a) (1 / 2), b) (1 / 4), c) (1 / 8) of its original intensity?
-A. (1 / 2)0.70745 degree, (1 / 4)0.560 degree, (1 / 8)0.353569.3 degree
-B. (1 / 2)0.70745 degree, (1 / 4)0.353569.3 degree, (1 / 8)0.560 degree
-C. (1 / 2)0.560 degree, (1 / 4)0.70745 degree, (1 / 8)0.353569.3 degree
-D. (1 / 2)0.353569.3 degree, (1 / 4)0.70745 degree, (1 / 8)0.560 degree
-</t>
-  </si>
-  <si>
     <t>极化器和分析仪必须如何定位，以使自然光的光束降低到其原始强度的a)（1/2），b)（1/4），c)（1/8）？
 A. (1 / 2)0.70745度, (1 / 4)0.560度, (1 / 8)0.353569.3度
 B. (1 / 2)0.70745度, (1 / 4)0.353569.3度, (1 / 8)0.560度
@@ -26355,6 +26347,15 @@
   </si>
   <si>
     <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">How must a polarizer and an analyzer be oriented so that a beam of natural light is reduced to a) (1 / 2), b) (1 / 4), c) (1 / 8) of its original intensity?
+A. (1 / 2)0.70745 degree, (1 / 4)0.560 degree, (1 / 8)0.353569.3 degree
+B. (1 / 2)0.70745 degree, (1 / 4)0.353569.3 degree, (1 / 8)0.560 degree
+C. (1 / 2)0.560 degree, (1 / 4)0.70745 degree, (1 / 8)0.353569.3 degree
+D. (1 / 2)0.353569.3 degree, (1 / 4)0.70745 degree, (1 / 8)0.560 degree
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -26702,8 +26703,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E1680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B644" sqref="B644"/>
+    <sheetView tabSelected="1" topLeftCell="A1430" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1431" sqref="D1431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="19"/>
@@ -26717,22 +26718,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20">
       <c r="A1" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3470</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3471</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3472</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3473</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="160" hidden="1">
+    </row>
+    <row r="2" spans="1:5" ht="160">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -26749,7 +26750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="180" hidden="1">
+    <row r="3" spans="1:5" ht="180">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -26766,7 +26767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="180" hidden="1">
+    <row r="4" spans="1:5" ht="180">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -26783,7 +26784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="180" hidden="1">
+    <row r="5" spans="1:5" ht="180">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -26834,7 +26835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="280" hidden="1">
+    <row r="8" spans="1:5" ht="280">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -26851,7 +26852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="140" hidden="1">
+    <row r="9" spans="1:5" ht="140">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -26868,7 +26869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="180" hidden="1">
+    <row r="10" spans="1:5" ht="180">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -26885,7 +26886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="120" hidden="1">
+    <row r="11" spans="1:5" ht="120">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -26953,7 +26954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="160" hidden="1">
+    <row r="15" spans="1:5" ht="160">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -26970,7 +26971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="180" hidden="1">
+    <row r="16" spans="1:5" ht="180">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -26987,7 +26988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="180" hidden="1">
+    <row r="17" spans="1:5" ht="180">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -27004,7 +27005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="180" hidden="1">
+    <row r="18" spans="1:5" ht="180">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -27021,7 +27022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="220" hidden="1">
+    <row r="19" spans="1:5" ht="220">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -27038,7 +27039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="160" hidden="1">
+    <row r="20" spans="1:5" ht="160">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -27055,7 +27056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="120" hidden="1">
+    <row r="21" spans="1:5" ht="120">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -27072,7 +27073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="160" hidden="1">
+    <row r="22" spans="1:5" ht="160">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -27089,7 +27090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="180" hidden="1">
+    <row r="23" spans="1:5" ht="180">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -27106,7 +27107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="160" hidden="1">
+    <row r="24" spans="1:5" ht="160">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -27123,7 +27124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="200" hidden="1">
+    <row r="25" spans="1:5" ht="200">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -27140,7 +27141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="140" hidden="1">
+    <row r="26" spans="1:5" ht="140">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -27157,7 +27158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="220" hidden="1">
+    <row r="27" spans="1:5" ht="220">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -27174,7 +27175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="140" hidden="1">
+    <row r="28" spans="1:5" ht="140">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -27191,7 +27192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="160" hidden="1">
+    <row r="29" spans="1:5" ht="160">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -27208,7 +27209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="200" hidden="1">
+    <row r="30" spans="1:5" ht="200">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -27225,7 +27226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="140" hidden="1">
+    <row r="31" spans="1:5" ht="140">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -27242,7 +27243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="180" hidden="1">
+    <row r="32" spans="1:5" ht="180">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -27259,7 +27260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="140" hidden="1">
+    <row r="33" spans="1:5" ht="140">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -27276,7 +27277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="200" hidden="1">
+    <row r="34" spans="1:5" ht="200">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -27293,7 +27294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="160" hidden="1">
+    <row r="35" spans="1:5" ht="160">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -27327,7 +27328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="180" hidden="1">
+    <row r="37" spans="1:5" ht="180">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -27361,7 +27362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="140" hidden="1">
+    <row r="39" spans="1:5" ht="140">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -27378,7 +27379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="160" hidden="1">
+    <row r="40" spans="1:5" ht="160">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -27395,7 +27396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="160" hidden="1">
+    <row r="41" spans="1:5" ht="160">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -27412,7 +27413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="140" hidden="1">
+    <row r="42" spans="1:5" ht="140">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -27429,7 +27430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="160" hidden="1">
+    <row r="43" spans="1:5" ht="160">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -27446,7 +27447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="120" hidden="1">
+    <row r="44" spans="1:5" ht="120">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -27463,7 +27464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="120" hidden="1">
+    <row r="45" spans="1:5" ht="120">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -27480,7 +27481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="220" hidden="1">
+    <row r="46" spans="1:5" ht="220">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -27514,7 +27515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="160" hidden="1">
+    <row r="48" spans="1:5" ht="160">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -27548,7 +27549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="200" hidden="1">
+    <row r="50" spans="1:5" ht="200">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -27565,7 +27566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="180" hidden="1">
+    <row r="51" spans="1:5" ht="180">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -27582,7 +27583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="180" hidden="1">
+    <row r="52" spans="1:5" ht="180">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -27599,7 +27600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="140" hidden="1">
+    <row r="53" spans="1:5" ht="140">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -27616,7 +27617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="120" hidden="1">
+    <row r="54" spans="1:5" ht="120">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -27650,7 +27651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="180" hidden="1">
+    <row r="56" spans="1:5" ht="180">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -27684,7 +27685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="200" hidden="1">
+    <row r="58" spans="1:5" ht="200">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -27701,7 +27702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="240" hidden="1">
+    <row r="59" spans="1:5" ht="240">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -27718,7 +27719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="220" hidden="1">
+    <row r="60" spans="1:5" ht="220">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -27735,7 +27736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="400" hidden="1">
+    <row r="61" spans="1:5" ht="400">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -27752,7 +27753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="140" hidden="1">
+    <row r="62" spans="1:5" ht="140">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -27769,7 +27770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="120" hidden="1">
+    <row r="63" spans="1:5" ht="120">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -27803,7 +27804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="140" hidden="1">
+    <row r="65" spans="1:5" ht="140">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -27820,7 +27821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="160" hidden="1">
+    <row r="66" spans="1:5" ht="160">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -27837,7 +27838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="220" hidden="1">
+    <row r="67" spans="1:5" ht="220">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -27854,7 +27855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="160" hidden="1">
+    <row r="68" spans="1:5" ht="160">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -27871,7 +27872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="180" hidden="1">
+    <row r="69" spans="1:5" ht="180">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -27888,7 +27889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="120" hidden="1">
+    <row r="70" spans="1:5" ht="120">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -27922,7 +27923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="200" hidden="1">
+    <row r="72" spans="1:5" ht="200">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -27956,7 +27957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="180" hidden="1">
+    <row r="74" spans="1:5" ht="180">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -27973,7 +27974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="160" hidden="1">
+    <row r="75" spans="1:5" ht="160">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -27990,7 +27991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="200" hidden="1">
+    <row r="76" spans="1:5" ht="200">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -28007,7 +28008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="160" hidden="1">
+    <row r="77" spans="1:5" ht="160">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -28041,7 +28042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="140" hidden="1">
+    <row r="79" spans="1:5" ht="140">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -28058,7 +28059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="260" hidden="1">
+    <row r="80" spans="1:5" ht="260">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -28075,7 +28076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="180" hidden="1">
+    <row r="81" spans="1:5" ht="180">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -28109,7 +28110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="160" hidden="1">
+    <row r="83" spans="1:5" ht="160">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -28126,7 +28127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="120" hidden="1">
+    <row r="84" spans="1:5" ht="120">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -28143,7 +28144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="280" hidden="1">
+    <row r="85" spans="1:5" ht="280">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -28160,7 +28161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="140" hidden="1">
+    <row r="86" spans="1:5" ht="140">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -28194,7 +28195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="120" hidden="1">
+    <row r="88" spans="1:5" ht="120">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -28228,7 +28229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="140" hidden="1">
+    <row r="90" spans="1:5" ht="140">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -28245,7 +28246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="200" hidden="1">
+    <row r="91" spans="1:5" ht="200">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -28262,7 +28263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="160" hidden="1">
+    <row r="92" spans="1:5" ht="160">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -28296,7 +28297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="180" hidden="1">
+    <row r="94" spans="1:5" ht="180">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -28313,7 +28314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="140" hidden="1">
+    <row r="95" spans="1:5" ht="140">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -28347,7 +28348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="260" hidden="1">
+    <row r="97" spans="1:5" ht="260">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -28364,7 +28365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="160" hidden="1">
+    <row r="98" spans="1:5" ht="160">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -28381,7 +28382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="160" hidden="1">
+    <row r="99" spans="1:5" ht="160">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -28398,7 +28399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="160" hidden="1">
+    <row r="100" spans="1:5" ht="160">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -28415,7 +28416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="160" hidden="1">
+    <row r="101" spans="1:5" ht="160">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -28432,7 +28433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="180" hidden="1">
+    <row r="102" spans="1:5" ht="180">
       <c r="A102" s="1" t="s">
         <v>209</v>
       </c>
@@ -28449,7 +28450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="180" hidden="1">
+    <row r="103" spans="1:5" ht="180">
       <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
@@ -28466,7 +28467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="160" hidden="1">
+    <row r="104" spans="1:5" ht="160">
       <c r="A104" s="1" t="s">
         <v>209</v>
       </c>
@@ -28500,7 +28501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="160" hidden="1">
+    <row r="106" spans="1:5" ht="160">
       <c r="A106" s="1" t="s">
         <v>209</v>
       </c>
@@ -28534,7 +28535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="140" hidden="1">
+    <row r="108" spans="1:5" ht="140">
       <c r="A108" s="1" t="s">
         <v>209</v>
       </c>
@@ -28551,7 +28552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="140" hidden="1">
+    <row r="109" spans="1:5" ht="140">
       <c r="A109" s="1" t="s">
         <v>209</v>
       </c>
@@ -28568,7 +28569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="120" hidden="1">
+    <row r="110" spans="1:5" ht="120">
       <c r="A110" s="1" t="s">
         <v>209</v>
       </c>
@@ -28602,7 +28603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="180" hidden="1">
+    <row r="112" spans="1:5" ht="180">
       <c r="A112" s="1" t="s">
         <v>209</v>
       </c>
@@ -28636,7 +28637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="120" hidden="1">
+    <row r="114" spans="1:5" ht="120">
       <c r="A114" s="1" t="s">
         <v>209</v>
       </c>
@@ -28653,7 +28654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="140" hidden="1">
+    <row r="115" spans="1:5" ht="140">
       <c r="A115" s="1" t="s">
         <v>209</v>
       </c>
@@ -28687,7 +28688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="409.6" hidden="1">
+    <row r="117" spans="1:5" ht="409.6">
       <c r="A117" s="1" t="s">
         <v>209</v>
       </c>
@@ -28704,7 +28705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="280" hidden="1">
+    <row r="118" spans="1:5" ht="280">
       <c r="A118" s="1" t="s">
         <v>209</v>
       </c>
@@ -28721,7 +28722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="180" hidden="1">
+    <row r="119" spans="1:5" ht="180">
       <c r="A119" s="1" t="s">
         <v>209</v>
       </c>
@@ -28738,7 +28739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="160" hidden="1">
+    <row r="120" spans="1:5" ht="160">
       <c r="A120" s="1" t="s">
         <v>209</v>
       </c>
@@ -28789,7 +28790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="160" hidden="1">
+    <row r="123" spans="1:5" ht="160">
       <c r="A123" s="1" t="s">
         <v>209</v>
       </c>
@@ -28857,7 +28858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="280" hidden="1">
+    <row r="127" spans="1:5" ht="280">
       <c r="A127" s="1" t="s">
         <v>209</v>
       </c>
@@ -28874,7 +28875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="160" hidden="1">
+    <row r="128" spans="1:5" ht="160">
       <c r="A128" s="1" t="s">
         <v>209</v>
       </c>
@@ -28891,7 +28892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="140" hidden="1">
+    <row r="129" spans="1:5" ht="140">
       <c r="A129" s="1" t="s">
         <v>209</v>
       </c>
@@ -28908,7 +28909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="200" hidden="1">
+    <row r="130" spans="1:5" ht="200">
       <c r="A130" s="1" t="s">
         <v>209</v>
       </c>
@@ -28942,7 +28943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="220" hidden="1">
+    <row r="132" spans="1:5" ht="220">
       <c r="A132" s="1" t="s">
         <v>209</v>
       </c>
@@ -28959,7 +28960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="140" hidden="1">
+    <row r="133" spans="1:5" ht="140">
       <c r="A133" s="1" t="s">
         <v>209</v>
       </c>
@@ -28976,7 +28977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="140" hidden="1">
+    <row r="134" spans="1:5" ht="140">
       <c r="A134" s="1" t="s">
         <v>209</v>
       </c>
@@ -28993,7 +28994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="140" hidden="1">
+    <row r="135" spans="1:5" ht="140">
       <c r="A135" s="1" t="s">
         <v>209</v>
       </c>
@@ -29010,7 +29011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="409.6" hidden="1">
+    <row r="136" spans="1:5" ht="409.6">
       <c r="A136" s="1" t="s">
         <v>209</v>
       </c>
@@ -29027,7 +29028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="160" hidden="1">
+    <row r="137" spans="1:5" ht="160">
       <c r="A137" s="1" t="s">
         <v>209</v>
       </c>
@@ -29078,7 +29079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="220" hidden="1">
+    <row r="140" spans="1:5" ht="220">
       <c r="A140" s="1" t="s">
         <v>209</v>
       </c>
@@ -29129,7 +29130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="140" hidden="1">
+    <row r="143" spans="1:5" ht="140">
       <c r="A143" s="1" t="s">
         <v>209</v>
       </c>
@@ -29163,7 +29164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="140" hidden="1">
+    <row r="145" spans="1:5" ht="140">
       <c r="A145" s="1" t="s">
         <v>209</v>
       </c>
@@ -29180,7 +29181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="260" hidden="1">
+    <row r="146" spans="1:5" ht="260">
       <c r="A146" s="1" t="s">
         <v>209</v>
       </c>
@@ -29197,7 +29198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="260" hidden="1">
+    <row r="147" spans="1:5" ht="260">
       <c r="A147" s="1" t="s">
         <v>209</v>
       </c>
@@ -29248,7 +29249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="200" hidden="1">
+    <row r="150" spans="1:5" ht="200">
       <c r="A150" s="1" t="s">
         <v>209</v>
       </c>
@@ -29282,7 +29283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="160" hidden="1">
+    <row r="152" spans="1:5" ht="160">
       <c r="A152" s="1" t="s">
         <v>209</v>
       </c>
@@ -29299,7 +29300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="160" hidden="1">
+    <row r="153" spans="1:5" ht="160">
       <c r="A153" s="1" t="s">
         <v>209</v>
       </c>
@@ -29316,7 +29317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="140" hidden="1">
+    <row r="154" spans="1:5" ht="140">
       <c r="A154" s="1" t="s">
         <v>209</v>
       </c>
@@ -29333,7 +29334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="140" hidden="1">
+    <row r="155" spans="1:5" ht="140">
       <c r="A155" s="1" t="s">
         <v>209</v>
       </c>
@@ -29350,7 +29351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="180" hidden="1">
+    <row r="156" spans="1:5" ht="180">
       <c r="A156" s="1" t="s">
         <v>209</v>
       </c>
@@ -29367,7 +29368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="400" hidden="1">
+    <row r="157" spans="1:5" ht="400">
       <c r="A157" s="1" t="s">
         <v>209</v>
       </c>
@@ -29384,7 +29385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="160" hidden="1">
+    <row r="158" spans="1:5" ht="160">
       <c r="A158" s="1" t="s">
         <v>209</v>
       </c>
@@ -29418,7 +29419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="140" hidden="1">
+    <row r="160" spans="1:5" ht="140">
       <c r="A160" s="1" t="s">
         <v>209</v>
       </c>
@@ -29435,7 +29436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="120" hidden="1">
+    <row r="161" spans="1:5" ht="120">
       <c r="A161" s="1" t="s">
         <v>209</v>
       </c>
@@ -29486,7 +29487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="160" hidden="1">
+    <row r="164" spans="1:5" ht="160">
       <c r="A164" s="1" t="s">
         <v>209</v>
       </c>
@@ -29520,7 +29521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="200" hidden="1">
+    <row r="166" spans="1:5" ht="200">
       <c r="A166" s="1" t="s">
         <v>209</v>
       </c>
@@ -29537,7 +29538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="180" hidden="1">
+    <row r="167" spans="1:5" ht="180">
       <c r="A167" s="1" t="s">
         <v>209</v>
       </c>
@@ -29554,7 +29555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="280" hidden="1">
+    <row r="168" spans="1:5" ht="280">
       <c r="A168" s="1" t="s">
         <v>209</v>
       </c>
@@ -29588,7 +29589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="320" hidden="1">
+    <row r="170" spans="1:5" ht="320">
       <c r="A170" s="1" t="s">
         <v>209</v>
       </c>
@@ -29605,7 +29606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="160" hidden="1">
+    <row r="171" spans="1:5" ht="160">
       <c r="A171" s="1" t="s">
         <v>209</v>
       </c>
@@ -29622,7 +29623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="160" hidden="1">
+    <row r="172" spans="1:5" ht="160">
       <c r="A172" s="1" t="s">
         <v>209</v>
       </c>
@@ -29639,7 +29640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="180" hidden="1">
+    <row r="173" spans="1:5" ht="180">
       <c r="A173" s="1" t="s">
         <v>209</v>
       </c>
@@ -29673,7 +29674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="260" hidden="1">
+    <row r="175" spans="1:5" ht="260">
       <c r="A175" s="1" t="s">
         <v>209</v>
       </c>
@@ -29690,7 +29691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="120" hidden="1">
+    <row r="176" spans="1:5" ht="120">
       <c r="A176" s="1" t="s">
         <v>209</v>
       </c>
@@ -29707,7 +29708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="140" hidden="1">
+    <row r="177" spans="1:5" ht="140">
       <c r="A177" s="1" t="s">
         <v>209</v>
       </c>
@@ -29724,7 +29725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="180" hidden="1">
+    <row r="178" spans="1:5" ht="180">
       <c r="A178" s="1" t="s">
         <v>209</v>
       </c>
@@ -29741,7 +29742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="200" hidden="1">
+    <row r="179" spans="1:5" ht="200">
       <c r="A179" s="1" t="s">
         <v>209</v>
       </c>
@@ -29758,7 +29759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="240" hidden="1">
+    <row r="180" spans="1:5" ht="240">
       <c r="A180" s="1" t="s">
         <v>209</v>
       </c>
@@ -29775,7 +29776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="140" hidden="1">
+    <row r="181" spans="1:5" ht="140">
       <c r="A181" s="1" t="s">
         <v>209</v>
       </c>
@@ -29809,7 +29810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="140" hidden="1">
+    <row r="183" spans="1:5" ht="140">
       <c r="A183" s="1" t="s">
         <v>209</v>
       </c>
@@ -29826,7 +29827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="260" hidden="1">
+    <row r="184" spans="1:5" ht="260">
       <c r="A184" s="1" t="s">
         <v>209</v>
       </c>
@@ -29843,7 +29844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="140" hidden="1">
+    <row r="185" spans="1:5" ht="140">
       <c r="A185" s="1" t="s">
         <v>209</v>
       </c>
@@ -29877,7 +29878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="200" hidden="1">
+    <row r="187" spans="1:5" ht="200">
       <c r="A187" s="1" t="s">
         <v>209</v>
       </c>
@@ -29894,7 +29895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="160" hidden="1">
+    <row r="188" spans="1:5" ht="160">
       <c r="A188" s="1" t="s">
         <v>209</v>
       </c>
@@ -29911,7 +29912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="160" hidden="1">
+    <row r="189" spans="1:5" ht="160">
       <c r="A189" s="1" t="s">
         <v>209</v>
       </c>
@@ -29962,7 +29963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="140" hidden="1">
+    <row r="192" spans="1:5" ht="140">
       <c r="A192" s="1" t="s">
         <v>209</v>
       </c>
@@ -29979,7 +29980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="180" hidden="1">
+    <row r="193" spans="1:5" ht="180">
       <c r="A193" s="1" t="s">
         <v>209</v>
       </c>
@@ -29996,7 +29997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="160" hidden="1">
+    <row r="194" spans="1:5" ht="160">
       <c r="A194" s="1" t="s">
         <v>209</v>
       </c>
@@ -30013,7 +30014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="409.6" hidden="1">
+    <row r="195" spans="1:5" ht="409.6">
       <c r="A195" s="1" t="s">
         <v>209</v>
       </c>
@@ -30030,7 +30031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="140" hidden="1">
+    <row r="196" spans="1:5" ht="140">
       <c r="A196" s="1" t="s">
         <v>209</v>
       </c>
@@ -30064,7 +30065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="140" hidden="1">
+    <row r="198" spans="1:5" ht="140">
       <c r="A198" s="1" t="s">
         <v>209</v>
       </c>
@@ -30081,7 +30082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="160" hidden="1">
+    <row r="199" spans="1:5" ht="160">
       <c r="A199" s="1" t="s">
         <v>209</v>
       </c>
@@ -30098,7 +30099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="220" hidden="1">
+    <row r="200" spans="1:5" ht="220">
       <c r="A200" s="1" t="s">
         <v>209</v>
       </c>
@@ -30115,7 +30116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="220" hidden="1">
+    <row r="201" spans="1:5" ht="220">
       <c r="A201" s="1" t="s">
         <v>209</v>
       </c>
@@ -30132,7 +30133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="140" hidden="1">
+    <row r="202" spans="1:5" ht="140">
       <c r="A202" s="1" t="s">
         <v>415</v>
       </c>
@@ -30149,7 +30150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="140" hidden="1">
+    <row r="203" spans="1:5" ht="140">
       <c r="A203" s="1" t="s">
         <v>415</v>
       </c>
@@ -30166,7 +30167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="200" hidden="1">
+    <row r="204" spans="1:5" ht="200">
       <c r="A204" s="1" t="s">
         <v>415</v>
       </c>
@@ -30183,7 +30184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="200" hidden="1">
+    <row r="205" spans="1:5" ht="200">
       <c r="A205" s="1" t="s">
         <v>415</v>
       </c>
@@ -30200,7 +30201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="140" hidden="1">
+    <row r="206" spans="1:5" ht="140">
       <c r="A206" s="1" t="s">
         <v>415</v>
       </c>
@@ -30234,7 +30235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="220" hidden="1">
+    <row r="208" spans="1:5" ht="220">
       <c r="A208" s="1" t="s">
         <v>415</v>
       </c>
@@ -30251,7 +30252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="180" hidden="1">
+    <row r="209" spans="1:5" ht="180">
       <c r="A209" s="1" t="s">
         <v>415</v>
       </c>
@@ -30268,7 +30269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="260" hidden="1">
+    <row r="210" spans="1:5" ht="260">
       <c r="A210" s="1" t="s">
         <v>415</v>
       </c>
@@ -30285,7 +30286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="160" hidden="1">
+    <row r="211" spans="1:5" ht="160">
       <c r="A211" s="1" t="s">
         <v>415</v>
       </c>
@@ -30319,7 +30320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="140" hidden="1">
+    <row r="213" spans="1:5" ht="140">
       <c r="A213" s="1" t="s">
         <v>415</v>
       </c>
@@ -30336,7 +30337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="120" hidden="1">
+    <row r="214" spans="1:5" ht="120">
       <c r="A214" s="1" t="s">
         <v>415</v>
       </c>
@@ -30353,7 +30354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="180" hidden="1">
+    <row r="215" spans="1:5" ht="180">
       <c r="A215" s="1" t="s">
         <v>415</v>
       </c>
@@ -30370,7 +30371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="200" hidden="1">
+    <row r="216" spans="1:5" ht="200">
       <c r="A216" s="1" t="s">
         <v>415</v>
       </c>
@@ -30387,7 +30388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="140" hidden="1">
+    <row r="217" spans="1:5" ht="140">
       <c r="A217" s="1" t="s">
         <v>415</v>
       </c>
@@ -30421,7 +30422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="220" hidden="1">
+    <row r="219" spans="1:5" ht="220">
       <c r="A219" s="1" t="s">
         <v>415</v>
       </c>
@@ -30455,7 +30456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="120" hidden="1">
+    <row r="221" spans="1:5" ht="120">
       <c r="A221" s="1" t="s">
         <v>415</v>
       </c>
@@ -30472,7 +30473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="140" hidden="1">
+    <row r="222" spans="1:5" ht="140">
       <c r="A222" s="1" t="s">
         <v>415</v>
       </c>
@@ -30506,7 +30507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="180" hidden="1">
+    <row r="224" spans="1:5" ht="180">
       <c r="A224" s="1" t="s">
         <v>415</v>
       </c>
@@ -30523,7 +30524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="160" hidden="1">
+    <row r="225" spans="1:5" ht="160">
       <c r="A225" s="1" t="s">
         <v>415</v>
       </c>
@@ -30540,7 +30541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="409.6" hidden="1">
+    <row r="226" spans="1:5" ht="409.6">
       <c r="A226" s="1" t="s">
         <v>415</v>
       </c>
@@ -30574,7 +30575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="160" hidden="1">
+    <row r="228" spans="1:5" ht="160">
       <c r="A228" s="1" t="s">
         <v>415</v>
       </c>
@@ -30591,7 +30592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="220" hidden="1">
+    <row r="229" spans="1:5" ht="220">
       <c r="A229" s="1" t="s">
         <v>415</v>
       </c>
@@ -30642,7 +30643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="120" hidden="1">
+    <row r="232" spans="1:5" ht="120">
       <c r="A232" s="1" t="s">
         <v>415</v>
       </c>
@@ -30659,7 +30660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="160" hidden="1">
+    <row r="233" spans="1:5" ht="160">
       <c r="A233" s="1" t="s">
         <v>415</v>
       </c>
@@ -30676,7 +30677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="200" hidden="1">
+    <row r="234" spans="1:5" ht="200">
       <c r="A234" s="1" t="s">
         <v>415</v>
       </c>
@@ -30693,7 +30694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="200" hidden="1">
+    <row r="235" spans="1:5" ht="200">
       <c r="A235" s="1" t="s">
         <v>415</v>
       </c>
@@ -30710,7 +30711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="140" hidden="1">
+    <row r="236" spans="1:5" ht="140">
       <c r="A236" s="1" t="s">
         <v>415</v>
       </c>
@@ -30761,7 +30762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="160" hidden="1">
+    <row r="239" spans="1:5" ht="160">
       <c r="A239" s="1" t="s">
         <v>415</v>
       </c>
@@ -30778,7 +30779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="120" hidden="1">
+    <row r="240" spans="1:5" ht="120">
       <c r="A240" s="1" t="s">
         <v>415</v>
       </c>
@@ -30795,7 +30796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="220" hidden="1">
+    <row r="241" spans="1:5" ht="220">
       <c r="A241" s="1" t="s">
         <v>415</v>
       </c>
@@ -30829,7 +30830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="220" hidden="1">
+    <row r="243" spans="1:5" ht="220">
       <c r="A243" s="1" t="s">
         <v>415</v>
       </c>
@@ -30846,7 +30847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="160" hidden="1">
+    <row r="244" spans="1:5" ht="160">
       <c r="A244" s="1" t="s">
         <v>415</v>
       </c>
@@ -30863,7 +30864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="140" hidden="1">
+    <row r="245" spans="1:5" ht="140">
       <c r="A245" s="1" t="s">
         <v>415</v>
       </c>
@@ -30880,7 +30881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="200" hidden="1">
+    <row r="246" spans="1:5" ht="200">
       <c r="A246" s="1" t="s">
         <v>415</v>
       </c>
@@ -30897,7 +30898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="160" hidden="1">
+    <row r="247" spans="1:5" ht="160">
       <c r="A247" s="1" t="s">
         <v>415</v>
       </c>
@@ -30914,7 +30915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="200" hidden="1">
+    <row r="248" spans="1:5" ht="200">
       <c r="A248" s="1" t="s">
         <v>415</v>
       </c>
@@ -30948,7 +30949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="200" hidden="1">
+    <row r="250" spans="1:5" ht="200">
       <c r="A250" s="1" t="s">
         <v>415</v>
       </c>
@@ -30965,7 +30966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="180" hidden="1">
+    <row r="251" spans="1:5" ht="180">
       <c r="A251" s="1" t="s">
         <v>415</v>
       </c>
@@ -30982,7 +30983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="140" hidden="1">
+    <row r="252" spans="1:5" ht="140">
       <c r="A252" s="1" t="s">
         <v>415</v>
       </c>
@@ -30999,7 +31000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="180" hidden="1">
+    <row r="253" spans="1:5" ht="180">
       <c r="A253" s="1" t="s">
         <v>415</v>
       </c>
@@ -31016,7 +31017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="180" hidden="1">
+    <row r="254" spans="1:5" ht="180">
       <c r="A254" s="1" t="s">
         <v>415</v>
       </c>
@@ -31033,7 +31034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="240" hidden="1">
+    <row r="255" spans="1:5" ht="240">
       <c r="A255" s="1" t="s">
         <v>415</v>
       </c>
@@ -31067,7 +31068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="160" hidden="1">
+    <row r="257" spans="1:5" ht="160">
       <c r="A257" s="1" t="s">
         <v>415</v>
       </c>
@@ -31084,7 +31085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="160" hidden="1">
+    <row r="258" spans="1:5" ht="160">
       <c r="A258" s="1" t="s">
         <v>415</v>
       </c>
@@ -31101,7 +31102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="140" hidden="1">
+    <row r="259" spans="1:5" ht="140">
       <c r="A259" s="1" t="s">
         <v>415</v>
       </c>
@@ -31118,7 +31119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="160" hidden="1">
+    <row r="260" spans="1:5" ht="160">
       <c r="A260" s="1" t="s">
         <v>415</v>
       </c>
@@ -31135,7 +31136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="180" hidden="1">
+    <row r="261" spans="1:5" ht="180">
       <c r="A261" s="1" t="s">
         <v>415</v>
       </c>
@@ -31152,7 +31153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="180" hidden="1">
+    <row r="262" spans="1:5" ht="180">
       <c r="A262" s="1" t="s">
         <v>415</v>
       </c>
@@ -31186,7 +31187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="200" hidden="1">
+    <row r="264" spans="1:5" ht="200">
       <c r="A264" s="1" t="s">
         <v>415</v>
       </c>
@@ -31203,7 +31204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="140" hidden="1">
+    <row r="265" spans="1:5" ht="140">
       <c r="A265" s="1" t="s">
         <v>415</v>
       </c>
@@ -31220,7 +31221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="160" hidden="1">
+    <row r="266" spans="1:5" ht="160">
       <c r="A266" s="1" t="s">
         <v>415</v>
       </c>
@@ -31237,7 +31238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="140" hidden="1">
+    <row r="267" spans="1:5" ht="140">
       <c r="A267" s="1" t="s">
         <v>415</v>
       </c>
@@ -31254,7 +31255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="160" hidden="1">
+    <row r="268" spans="1:5" ht="160">
       <c r="A268" s="1" t="s">
         <v>415</v>
       </c>
@@ -31271,7 +31272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="200" hidden="1">
+    <row r="269" spans="1:5" ht="200">
       <c r="A269" s="1" t="s">
         <v>415</v>
       </c>
@@ -31288,7 +31289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="180" hidden="1">
+    <row r="270" spans="1:5" ht="180">
       <c r="A270" s="1" t="s">
         <v>415</v>
       </c>
@@ -31305,7 +31306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="160" hidden="1">
+    <row r="271" spans="1:5" ht="160">
       <c r="A271" s="1" t="s">
         <v>415</v>
       </c>
@@ -31339,7 +31340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="180" hidden="1">
+    <row r="273" spans="1:5" ht="180">
       <c r="A273" s="1" t="s">
         <v>415</v>
       </c>
@@ -31356,7 +31357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="140" hidden="1">
+    <row r="274" spans="1:5" ht="140">
       <c r="A274" s="1" t="s">
         <v>415</v>
       </c>
@@ -31373,7 +31374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="160" hidden="1">
+    <row r="275" spans="1:5" ht="160">
       <c r="A275" s="1" t="s">
         <v>415</v>
       </c>
@@ -31390,7 +31391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="160" hidden="1">
+    <row r="276" spans="1:5" ht="160">
       <c r="A276" s="1" t="s">
         <v>415</v>
       </c>
@@ -31407,7 +31408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="200" hidden="1">
+    <row r="277" spans="1:5" ht="200">
       <c r="A277" s="1" t="s">
         <v>415</v>
       </c>
@@ -31424,7 +31425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="180" hidden="1">
+    <row r="278" spans="1:5" ht="180">
       <c r="A278" s="1" t="s">
         <v>415</v>
       </c>
@@ -31441,7 +31442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="200" hidden="1">
+    <row r="279" spans="1:5" ht="200">
       <c r="A279" s="1" t="s">
         <v>415</v>
       </c>
@@ -31458,7 +31459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="140" hidden="1">
+    <row r="280" spans="1:5" ht="140">
       <c r="A280" s="1" t="s">
         <v>415</v>
       </c>
@@ -31475,7 +31476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="140" hidden="1">
+    <row r="281" spans="1:5" ht="140">
       <c r="A281" s="1" t="s">
         <v>415</v>
       </c>
@@ -31509,7 +31510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="120" hidden="1">
+    <row r="283" spans="1:5" ht="120">
       <c r="A283" s="1" t="s">
         <v>415</v>
       </c>
@@ -31526,7 +31527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="160" hidden="1">
+    <row r="284" spans="1:5" ht="160">
       <c r="A284" s="1" t="s">
         <v>415</v>
       </c>
@@ -31543,7 +31544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="160" hidden="1">
+    <row r="285" spans="1:5" ht="160">
       <c r="A285" s="1" t="s">
         <v>415</v>
       </c>
@@ -31560,7 +31561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="140" hidden="1">
+    <row r="286" spans="1:5" ht="140">
       <c r="A286" s="1" t="s">
         <v>415</v>
       </c>
@@ -31577,7 +31578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="140" hidden="1">
+    <row r="287" spans="1:5" ht="140">
       <c r="A287" s="1" t="s">
         <v>415</v>
       </c>
@@ -31662,7 +31663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="180" hidden="1">
+    <row r="292" spans="1:5" ht="180">
       <c r="A292" s="1" t="s">
         <v>415</v>
       </c>
@@ -31679,7 +31680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="200" hidden="1">
+    <row r="293" spans="1:5" ht="200">
       <c r="A293" s="1" t="s">
         <v>415</v>
       </c>
@@ -31696,7 +31697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="180" hidden="1">
+    <row r="294" spans="1:5" ht="180">
       <c r="A294" s="1" t="s">
         <v>415</v>
       </c>
@@ -31730,7 +31731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="160" hidden="1">
+    <row r="296" spans="1:5" ht="160">
       <c r="A296" s="1" t="s">
         <v>415</v>
       </c>
@@ -31747,7 +31748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="280" hidden="1">
+    <row r="297" spans="1:5" ht="280">
       <c r="A297" s="1" t="s">
         <v>415</v>
       </c>
@@ -31764,7 +31765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="140" hidden="1">
+    <row r="298" spans="1:5" ht="140">
       <c r="A298" s="1" t="s">
         <v>415</v>
       </c>
@@ -31781,7 +31782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="140" hidden="1">
+    <row r="299" spans="1:5" ht="140">
       <c r="A299" s="1" t="s">
         <v>415</v>
       </c>
@@ -31798,7 +31799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="180" hidden="1">
+    <row r="300" spans="1:5" ht="180">
       <c r="A300" s="1" t="s">
         <v>415</v>
       </c>
@@ -31815,7 +31816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="140" hidden="1">
+    <row r="301" spans="1:5" ht="140">
       <c r="A301" s="1" t="s">
         <v>415</v>
       </c>
@@ -31866,7 +31867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="220" hidden="1">
+    <row r="304" spans="1:5" ht="220">
       <c r="A304" s="1" t="s">
         <v>624</v>
       </c>
@@ -31883,7 +31884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="160" hidden="1">
+    <row r="305" spans="1:5" ht="160">
       <c r="A305" s="1" t="s">
         <v>624</v>
       </c>
@@ -31917,7 +31918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="180" hidden="1">
+    <row r="307" spans="1:5" ht="180">
       <c r="A307" s="1" t="s">
         <v>624</v>
       </c>
@@ -31934,7 +31935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="120" hidden="1">
+    <row r="308" spans="1:5" ht="120">
       <c r="A308" s="1" t="s">
         <v>624</v>
       </c>
@@ -31951,7 +31952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="260" hidden="1">
+    <row r="309" spans="1:5" ht="260">
       <c r="A309" s="1" t="s">
         <v>624</v>
       </c>
@@ -31968,7 +31969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="160" hidden="1">
+    <row r="310" spans="1:5" ht="160">
       <c r="A310" s="1" t="s">
         <v>624</v>
       </c>
@@ -32019,7 +32020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="180" hidden="1">
+    <row r="313" spans="1:5" ht="180">
       <c r="A313" s="1" t="s">
         <v>624</v>
       </c>
@@ -32087,7 +32088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="220" hidden="1">
+    <row r="317" spans="1:5" ht="220">
       <c r="A317" s="1" t="s">
         <v>624</v>
       </c>
@@ -32104,7 +32105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="160" hidden="1">
+    <row r="318" spans="1:5" ht="160">
       <c r="A318" s="1" t="s">
         <v>624</v>
       </c>
@@ -32155,7 +32156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="360" hidden="1">
+    <row r="321" spans="1:5" ht="360">
       <c r="A321" s="1" t="s">
         <v>624</v>
       </c>
@@ -32172,7 +32173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="140" hidden="1">
+    <row r="322" spans="1:5" ht="140">
       <c r="A322" s="1" t="s">
         <v>624</v>
       </c>
@@ -32189,7 +32190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="200" hidden="1">
+    <row r="323" spans="1:5" ht="200">
       <c r="A323" s="1" t="s">
         <v>624</v>
       </c>
@@ -32240,7 +32241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="140" hidden="1">
+    <row r="326" spans="1:5" ht="140">
       <c r="A326" s="1" t="s">
         <v>624</v>
       </c>
@@ -32274,7 +32275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="260" hidden="1">
+    <row r="328" spans="1:5" ht="260">
       <c r="A328" s="1" t="s">
         <v>624</v>
       </c>
@@ -32308,7 +32309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="180" hidden="1">
+    <row r="330" spans="1:5" ht="180">
       <c r="A330" s="1" t="s">
         <v>624</v>
       </c>
@@ -32325,7 +32326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="160" hidden="1">
+    <row r="331" spans="1:5" ht="160">
       <c r="A331" s="1" t="s">
         <v>624</v>
       </c>
@@ -32359,7 +32360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="200" hidden="1">
+    <row r="333" spans="1:5" ht="200">
       <c r="A333" s="1" t="s">
         <v>624</v>
       </c>
@@ -32444,7 +32445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="140" hidden="1">
+    <row r="338" spans="1:5" ht="140">
       <c r="A338" s="1" t="s">
         <v>624</v>
       </c>
@@ -32512,7 +32513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="140" hidden="1">
+    <row r="342" spans="1:5" ht="140">
       <c r="A342" s="1" t="s">
         <v>624</v>
       </c>
@@ -32546,7 +32547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="160" hidden="1">
+    <row r="344" spans="1:5" ht="160">
       <c r="A344" s="1" t="s">
         <v>624</v>
       </c>
@@ -32580,7 +32581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="380" hidden="1">
+    <row r="346" spans="1:5" ht="380">
       <c r="A346" s="1" t="s">
         <v>624</v>
       </c>
@@ -32597,7 +32598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="160" hidden="1">
+    <row r="347" spans="1:5" ht="160">
       <c r="A347" s="1" t="s">
         <v>624</v>
       </c>
@@ -32614,7 +32615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="140" hidden="1">
+    <row r="348" spans="1:5" ht="140">
       <c r="A348" s="1" t="s">
         <v>624</v>
       </c>
@@ -32648,7 +32649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="200" hidden="1">
+    <row r="350" spans="1:5" ht="200">
       <c r="A350" s="1" t="s">
         <v>624</v>
       </c>
@@ -32767,7 +32768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="160" hidden="1">
+    <row r="357" spans="1:5" ht="160">
       <c r="A357" s="1" t="s">
         <v>624</v>
       </c>
@@ -32869,7 +32870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="240" hidden="1">
+    <row r="363" spans="1:5" ht="240">
       <c r="A363" s="1" t="s">
         <v>624</v>
       </c>
@@ -32886,7 +32887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="320" hidden="1">
+    <row r="364" spans="1:5" ht="320">
       <c r="A364" s="1" t="s">
         <v>624</v>
       </c>
@@ -32920,7 +32921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="160" hidden="1">
+    <row r="366" spans="1:5" ht="160">
       <c r="A366" s="1" t="s">
         <v>624</v>
       </c>
@@ -32971,7 +32972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="260" hidden="1">
+    <row r="369" spans="1:5" ht="260">
       <c r="A369" s="1" t="s">
         <v>624</v>
       </c>
@@ -32988,7 +32989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="360" hidden="1">
+    <row r="370" spans="1:5" ht="360">
       <c r="A370" s="1" t="s">
         <v>624</v>
       </c>
@@ -33005,7 +33006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="180" hidden="1">
+    <row r="371" spans="1:5" ht="180">
       <c r="A371" s="1" t="s">
         <v>624</v>
       </c>
@@ -33022,7 +33023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="140" hidden="1">
+    <row r="372" spans="1:5" ht="140">
       <c r="A372" s="1" t="s">
         <v>624</v>
       </c>
@@ -33039,7 +33040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="300" hidden="1">
+    <row r="373" spans="1:5" ht="300">
       <c r="A373" s="1" t="s">
         <v>624</v>
       </c>
@@ -33056,7 +33057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="160" hidden="1">
+    <row r="374" spans="1:5" ht="160">
       <c r="A374" s="1" t="s">
         <v>624</v>
       </c>
@@ -33124,7 +33125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="180" hidden="1">
+    <row r="378" spans="1:5" ht="180">
       <c r="A378" s="1" t="s">
         <v>624</v>
       </c>
@@ -33158,7 +33159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="160" hidden="1">
+    <row r="380" spans="1:5" ht="160">
       <c r="A380" s="1" t="s">
         <v>624</v>
       </c>
@@ -33175,7 +33176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="140" hidden="1">
+    <row r="381" spans="1:5" ht="140">
       <c r="A381" s="1" t="s">
         <v>624</v>
       </c>
@@ -33192,7 +33193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="140" hidden="1">
+    <row r="382" spans="1:5" ht="140">
       <c r="A382" s="1" t="s">
         <v>624</v>
       </c>
@@ -33294,7 +33295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="140" hidden="1">
+    <row r="388" spans="1:5" ht="140">
       <c r="A388" s="1" t="s">
         <v>624</v>
       </c>
@@ -33311,7 +33312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="280" hidden="1">
+    <row r="389" spans="1:5" ht="280">
       <c r="A389" s="1" t="s">
         <v>624</v>
       </c>
@@ -33362,7 +33363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="180" hidden="1">
+    <row r="392" spans="1:5" ht="180">
       <c r="A392" s="1" t="s">
         <v>624</v>
       </c>
@@ -33396,7 +33397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="140" hidden="1">
+    <row r="394" spans="1:5" ht="140">
       <c r="A394" s="1" t="s">
         <v>624</v>
       </c>
@@ -33413,7 +33414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="160" hidden="1">
+    <row r="395" spans="1:5" ht="160">
       <c r="A395" s="1" t="s">
         <v>624</v>
       </c>
@@ -33447,7 +33448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="120" hidden="1">
+    <row r="397" spans="1:5" ht="120">
       <c r="A397" s="1" t="s">
         <v>624</v>
       </c>
@@ -33481,7 +33482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="340" hidden="1">
+    <row r="399" spans="1:5" ht="340">
       <c r="A399" s="1" t="s">
         <v>624</v>
       </c>
@@ -33498,7 +33499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="200" hidden="1">
+    <row r="400" spans="1:5" ht="200">
       <c r="A400" s="1" t="s">
         <v>624</v>
       </c>
@@ -33515,7 +33516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="260" hidden="1">
+    <row r="401" spans="1:5" ht="260">
       <c r="A401" s="1" t="s">
         <v>624</v>
       </c>
@@ -35249,7 +35250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="160" hidden="1">
+    <row r="503" spans="1:5" ht="160">
       <c r="A503" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35266,7 +35267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="140" hidden="1">
+    <row r="504" spans="1:5" ht="140">
       <c r="A504" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35283,7 +35284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="180" hidden="1">
+    <row r="505" spans="1:5" ht="180">
       <c r="A505" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35368,7 +35369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="140" hidden="1">
+    <row r="510" spans="1:5" ht="140">
       <c r="A510" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35385,7 +35386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="120" hidden="1">
+    <row r="511" spans="1:5" ht="120">
       <c r="A511" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35402,7 +35403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="120" hidden="1">
+    <row r="512" spans="1:5" ht="120">
       <c r="A512" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35419,7 +35420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="140" hidden="1">
+    <row r="513" spans="1:5" ht="140">
       <c r="A513" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35436,7 +35437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="160" hidden="1">
+    <row r="514" spans="1:5" ht="160">
       <c r="A514" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35453,7 +35454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="140" hidden="1">
+    <row r="515" spans="1:5" ht="140">
       <c r="A515" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35470,7 +35471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="140" hidden="1">
+    <row r="516" spans="1:5" ht="140">
       <c r="A516" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35521,7 +35522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="140" hidden="1">
+    <row r="519" spans="1:5" ht="140">
       <c r="A519" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35538,7 +35539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="140" hidden="1">
+    <row r="520" spans="1:5" ht="140">
       <c r="A520" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35572,7 +35573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="180" hidden="1">
+    <row r="522" spans="1:5" ht="180">
       <c r="A522" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35606,7 +35607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="180" hidden="1">
+    <row r="524" spans="1:5" ht="180">
       <c r="A524" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35640,7 +35641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="160" hidden="1">
+    <row r="526" spans="1:5" ht="160">
       <c r="A526" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35657,7 +35658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="180" hidden="1">
+    <row r="527" spans="1:5" ht="180">
       <c r="A527" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35691,7 +35692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="260" hidden="1">
+    <row r="529" spans="1:5" ht="260">
       <c r="A529" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35742,7 +35743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="160" hidden="1">
+    <row r="532" spans="1:5" ht="160">
       <c r="A532" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35759,7 +35760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="140" hidden="1">
+    <row r="533" spans="1:5" ht="140">
       <c r="A533" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35776,7 +35777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="160" hidden="1">
+    <row r="534" spans="1:5" ht="160">
       <c r="A534" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35827,7 +35828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="200" hidden="1">
+    <row r="537" spans="1:5" ht="200">
       <c r="A537" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35844,7 +35845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="160" hidden="1">
+    <row r="538" spans="1:5" ht="160">
       <c r="A538" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35861,7 +35862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="140" hidden="1">
+    <row r="539" spans="1:5" ht="140">
       <c r="A539" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35912,7 +35913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="140" hidden="1">
+    <row r="542" spans="1:5" ht="140">
       <c r="A542" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35929,7 +35930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="160" hidden="1">
+    <row r="543" spans="1:5" ht="160">
       <c r="A543" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35946,7 +35947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="180" hidden="1">
+    <row r="544" spans="1:5" ht="180">
       <c r="A544" s="1" t="s">
         <v>1034</v>
       </c>
@@ -35997,7 +35998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="160" hidden="1">
+    <row r="547" spans="1:5" ht="160">
       <c r="A547" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36031,7 +36032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="280" hidden="1">
+    <row r="549" spans="1:5" ht="280">
       <c r="A549" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36065,7 +36066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="160" hidden="1">
+    <row r="551" spans="1:5" ht="160">
       <c r="A551" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36133,7 +36134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="140" hidden="1">
+    <row r="555" spans="1:5" ht="140">
       <c r="A555" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36150,7 +36151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="200" hidden="1">
+    <row r="556" spans="1:5" ht="200">
       <c r="A556" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36167,7 +36168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="140" hidden="1">
+    <row r="557" spans="1:5" ht="140">
       <c r="A557" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36184,7 +36185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="180" hidden="1">
+    <row r="558" spans="1:5" ht="180">
       <c r="A558" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36201,7 +36202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="160" hidden="1">
+    <row r="559" spans="1:5" ht="160">
       <c r="A559" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36218,7 +36219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="160" hidden="1">
+    <row r="560" spans="1:5" ht="160">
       <c r="A560" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36269,7 +36270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="200" hidden="1">
+    <row r="563" spans="1:5" ht="200">
       <c r="A563" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36303,7 +36304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="180" hidden="1">
+    <row r="565" spans="1:5" ht="180">
       <c r="A565" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36337,7 +36338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="567" spans="1:5" ht="200" hidden="1">
+    <row r="567" spans="1:5" ht="200">
       <c r="A567" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36354,7 +36355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="568" spans="1:5" ht="160" hidden="1">
+    <row r="568" spans="1:5" ht="160">
       <c r="A568" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36371,7 +36372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="200" hidden="1">
+    <row r="569" spans="1:5" ht="200">
       <c r="A569" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36388,7 +36389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="160" hidden="1">
+    <row r="570" spans="1:5" ht="160">
       <c r="A570" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36405,7 +36406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="160" hidden="1">
+    <row r="571" spans="1:5" ht="160">
       <c r="A571" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36422,7 +36423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="140" hidden="1">
+    <row r="572" spans="1:5" ht="140">
       <c r="A572" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36439,7 +36440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="180" hidden="1">
+    <row r="573" spans="1:5" ht="180">
       <c r="A573" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36490,7 +36491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="576" spans="1:5" ht="140" hidden="1">
+    <row r="576" spans="1:5" ht="140">
       <c r="A576" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36507,7 +36508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="140" hidden="1">
+    <row r="577" spans="1:5" ht="140">
       <c r="A577" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36524,7 +36525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="120" hidden="1">
+    <row r="578" spans="1:5" ht="120">
       <c r="A578" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36541,7 +36542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="160" hidden="1">
+    <row r="579" spans="1:5" ht="160">
       <c r="A579" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36558,7 +36559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="160" hidden="1">
+    <row r="580" spans="1:5" ht="160">
       <c r="A580" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36575,7 +36576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="140" hidden="1">
+    <row r="581" spans="1:5" ht="140">
       <c r="A581" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36592,7 +36593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="120" hidden="1">
+    <row r="582" spans="1:5" ht="120">
       <c r="A582" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36643,7 +36644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="140" hidden="1">
+    <row r="585" spans="1:5" ht="140">
       <c r="A585" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36694,7 +36695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="140" hidden="1">
+    <row r="588" spans="1:5" ht="140">
       <c r="A588" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36711,7 +36712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="140" hidden="1">
+    <row r="589" spans="1:5" ht="140">
       <c r="A589" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36728,7 +36729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="180" hidden="1">
+    <row r="590" spans="1:5" ht="180">
       <c r="A590" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36762,7 +36763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="140" hidden="1">
+    <row r="592" spans="1:5" ht="140">
       <c r="A592" s="1" t="s">
         <v>1034</v>
       </c>
@@ -36881,7 +36882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="140" hidden="1">
+    <row r="599" spans="1:5" ht="140">
       <c r="A599" s="1" t="s">
         <v>1034</v>
       </c>
@@ -37306,7 +37307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:5" ht="340">
+    <row r="624" spans="1:5" ht="320">
       <c r="A624" s="1" t="s">
         <v>1239</v>
       </c>
@@ -37646,7 +37647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="140">
+    <row r="644" spans="1:5" ht="140" hidden="1">
       <c r="A644" s="1" t="s">
         <v>1239</v>
       </c>
@@ -37799,7 +37800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="120">
+    <row r="653" spans="1:5" ht="120" hidden="1">
       <c r="A653" s="1" t="s">
         <v>1239</v>
       </c>
@@ -37986,7 +37987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="140">
+    <row r="664" spans="1:5" ht="140" hidden="1">
       <c r="A664" s="1" t="s">
         <v>1239</v>
       </c>
@@ -48237,7 +48238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1267" spans="1:5" ht="300" hidden="1">
+    <row r="1267" spans="1:5" ht="280" hidden="1">
       <c r="A1267" s="1" t="s">
         <v>2438</v>
       </c>
@@ -50192,7 +50193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1382" spans="1:5" ht="200" hidden="1">
+    <row r="1382" spans="1:5" ht="200">
       <c r="A1382" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50226,7 +50227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1384" spans="1:5" ht="160" hidden="1">
+    <row r="1384" spans="1:5" ht="160">
       <c r="A1384" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50260,7 +50261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1386" spans="1:5" ht="180" hidden="1">
+    <row r="1386" spans="1:5" ht="180">
       <c r="A1386" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50277,7 +50278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1387" spans="1:5" ht="180" hidden="1">
+    <row r="1387" spans="1:5" ht="180">
       <c r="A1387" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50311,7 +50312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1389" spans="1:5" ht="200" hidden="1">
+    <row r="1389" spans="1:5" ht="200">
       <c r="A1389" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50379,7 +50380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1393" spans="1:5" ht="200" hidden="1">
+    <row r="1393" spans="1:5" ht="200">
       <c r="A1393" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50413,7 +50414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1395" spans="1:5" ht="140" hidden="1">
+    <row r="1395" spans="1:5" ht="140">
       <c r="A1395" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50447,7 +50448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1397" spans="1:5" ht="180" hidden="1">
+    <row r="1397" spans="1:5" ht="180">
       <c r="A1397" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50464,7 +50465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1398" spans="1:5" ht="160" hidden="1">
+    <row r="1398" spans="1:5" ht="160">
       <c r="A1398" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50481,7 +50482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1399" spans="1:5" ht="160" hidden="1">
+    <row r="1399" spans="1:5" ht="160">
       <c r="A1399" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50515,7 +50516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1401" spans="1:5" ht="220" hidden="1">
+    <row r="1401" spans="1:5" ht="220">
       <c r="A1401" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50532,7 +50533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1402" spans="1:5" ht="180" hidden="1">
+    <row r="1402" spans="1:5" ht="180">
       <c r="A1402" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50583,7 +50584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1405" spans="1:5" ht="160" hidden="1">
+    <row r="1405" spans="1:5" ht="160">
       <c r="A1405" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50600,7 +50601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1406" spans="1:5" ht="160" hidden="1">
+    <row r="1406" spans="1:5" ht="160">
       <c r="A1406" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50617,7 +50618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1407" spans="1:5" ht="140" hidden="1">
+    <row r="1407" spans="1:5" ht="140">
       <c r="A1407" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50651,7 +50652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1409" spans="1:5" ht="240" hidden="1">
+    <row r="1409" spans="1:5" ht="240">
       <c r="A1409" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50702,7 +50703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1412" spans="1:5" ht="140" hidden="1">
+    <row r="1412" spans="1:5" ht="140">
       <c r="A1412" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50719,7 +50720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1413" spans="1:5" ht="140" hidden="1">
+    <row r="1413" spans="1:5" ht="140">
       <c r="A1413" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50736,7 +50737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1414" spans="1:5" ht="180" hidden="1">
+    <row r="1414" spans="1:5" ht="180">
       <c r="A1414" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50753,7 +50754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1415" spans="1:5" ht="120" hidden="1">
+    <row r="1415" spans="1:5" ht="120">
       <c r="A1415" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50770,7 +50771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1416" spans="1:5" ht="140" hidden="1">
+    <row r="1416" spans="1:5" ht="140">
       <c r="A1416" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50787,7 +50788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1417" spans="1:5" ht="160" hidden="1">
+    <row r="1417" spans="1:5" ht="160">
       <c r="A1417" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50804,7 +50805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1418" spans="1:5" ht="180" hidden="1">
+    <row r="1418" spans="1:5" ht="180">
       <c r="A1418" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50838,7 +50839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1420" spans="1:5" ht="160" hidden="1">
+    <row r="1420" spans="1:5" ht="160">
       <c r="A1420" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50872,7 +50873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1422" spans="1:5" ht="240" hidden="1">
+    <row r="1422" spans="1:5" ht="240">
       <c r="A1422" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50889,7 +50890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1423" spans="1:5" ht="140" hidden="1">
+    <row r="1423" spans="1:5" ht="140">
       <c r="A1423" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50906,7 +50907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1424" spans="1:5" ht="200" hidden="1">
+    <row r="1424" spans="1:5" ht="200">
       <c r="A1424" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50923,7 +50924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1425" spans="1:5" ht="220" hidden="1">
+    <row r="1425" spans="1:5" ht="220">
       <c r="A1425" s="1" t="s">
         <v>2849</v>
       </c>
@@ -50974,7 +50975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1428" spans="1:5" ht="140" hidden="1">
+    <row r="1428" spans="1:5" ht="140">
       <c r="A1428" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51008,7 +51009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1430" spans="1:5" ht="160" hidden="1">
+    <row r="1430" spans="1:5" ht="160">
       <c r="A1430" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51025,7 +51026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1431" spans="1:5" ht="140" hidden="1">
+    <row r="1431" spans="1:5" ht="140">
       <c r="A1431" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51033,10 +51034,10 @@
         <v>2905</v>
       </c>
       <c r="C1431" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D1431" s="1" t="s">
         <v>2960</v>
-      </c>
-      <c r="D1431" s="1" t="s">
-        <v>2961</v>
       </c>
       <c r="E1431" s="1" t="s">
         <v>24</v>
@@ -51050,10 +51051,10 @@
         <v>2856</v>
       </c>
       <c r="C1432" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D1432" s="1" t="s">
         <v>2962</v>
-      </c>
-      <c r="D1432" s="1" t="s">
-        <v>2963</v>
       </c>
       <c r="E1432" s="1" t="s">
         <v>24</v>
@@ -51067,16 +51068,16 @@
         <v>2850</v>
       </c>
       <c r="C1433" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D1433" s="1" t="s">
         <v>2964</v>
-      </c>
-      <c r="D1433" s="1" t="s">
-        <v>2965</v>
       </c>
       <c r="E1433" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1434" spans="1:5" ht="140" hidden="1">
+    <row r="1434" spans="1:5" ht="140">
       <c r="A1434" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51084,16 +51085,16 @@
         <v>2853</v>
       </c>
       <c r="C1434" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D1434" s="1" t="s">
         <v>2966</v>
-      </c>
-      <c r="D1434" s="1" t="s">
-        <v>2967</v>
       </c>
       <c r="E1434" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1435" spans="1:5" ht="200" hidden="1">
+    <row r="1435" spans="1:5" ht="200">
       <c r="A1435" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51101,16 +51102,16 @@
         <v>2879</v>
       </c>
       <c r="C1435" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D1435" s="1" t="s">
         <v>2968</v>
-      </c>
-      <c r="D1435" s="1" t="s">
-        <v>2969</v>
       </c>
       <c r="E1435" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1436" spans="1:5" ht="120" hidden="1">
+    <row r="1436" spans="1:5" ht="120">
       <c r="A1436" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51118,10 +51119,10 @@
         <v>2853</v>
       </c>
       <c r="C1436" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D1436" s="1" t="s">
         <v>2970</v>
-      </c>
-      <c r="D1436" s="1" t="s">
-        <v>2971</v>
       </c>
       <c r="E1436" s="1" t="s">
         <v>21</v>
@@ -51135,16 +51136,16 @@
         <v>2850</v>
       </c>
       <c r="C1437" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D1437" s="1" t="s">
         <v>2972</v>
-      </c>
-      <c r="D1437" s="1" t="s">
-        <v>2973</v>
       </c>
       <c r="E1437" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1438" spans="1:5" ht="220" hidden="1">
+    <row r="1438" spans="1:5" ht="220">
       <c r="A1438" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51152,16 +51153,16 @@
         <v>2905</v>
       </c>
       <c r="C1438" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D1438" s="1" t="s">
         <v>2974</v>
-      </c>
-      <c r="D1438" s="1" t="s">
-        <v>2975</v>
       </c>
       <c r="E1438" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1439" spans="1:5" ht="160" hidden="1">
+    <row r="1439" spans="1:5" ht="160">
       <c r="A1439" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51169,16 +51170,16 @@
         <v>2853</v>
       </c>
       <c r="C1439" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D1439" s="1" t="s">
         <v>2976</v>
-      </c>
-      <c r="D1439" s="1" t="s">
-        <v>2977</v>
       </c>
       <c r="E1439" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1440" spans="1:5" ht="180" hidden="1">
+    <row r="1440" spans="1:5" ht="180">
       <c r="A1440" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51186,10 +51187,10 @@
         <v>2905</v>
       </c>
       <c r="C1440" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D1440" s="1" t="s">
         <v>2978</v>
-      </c>
-      <c r="D1440" s="1" t="s">
-        <v>2979</v>
       </c>
       <c r="E1440" s="1" t="s">
         <v>10</v>
@@ -51203,10 +51204,10 @@
         <v>2919</v>
       </c>
       <c r="C1441" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D1441" s="1" t="s">
         <v>2980</v>
-      </c>
-      <c r="D1441" s="1" t="s">
-        <v>2981</v>
       </c>
       <c r="E1441" s="1" t="s">
         <v>21</v>
@@ -51220,16 +51221,16 @@
         <v>2919</v>
       </c>
       <c r="C1442" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D1442" s="1" t="s">
         <v>2982</v>
-      </c>
-      <c r="D1442" s="1" t="s">
-        <v>2983</v>
       </c>
       <c r="E1442" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1443" spans="1:5" ht="140" hidden="1">
+    <row r="1443" spans="1:5" ht="140">
       <c r="A1443" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51237,10 +51238,10 @@
         <v>2853</v>
       </c>
       <c r="C1443" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D1443" s="1" t="s">
         <v>2984</v>
-      </c>
-      <c r="D1443" s="1" t="s">
-        <v>2985</v>
       </c>
       <c r="E1443" s="1" t="s">
         <v>4</v>
@@ -51254,16 +51255,16 @@
         <v>2916</v>
       </c>
       <c r="C1444" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D1444" s="1" t="s">
         <v>2986</v>
-      </c>
-      <c r="D1444" s="1" t="s">
-        <v>2987</v>
       </c>
       <c r="E1444" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1445" spans="1:5" ht="160" hidden="1">
+    <row r="1445" spans="1:5" ht="160">
       <c r="A1445" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51271,16 +51272,16 @@
         <v>2853</v>
       </c>
       <c r="C1445" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D1445" s="1" t="s">
         <v>2988</v>
-      </c>
-      <c r="D1445" s="1" t="s">
-        <v>2989</v>
       </c>
       <c r="E1445" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1446" spans="1:5" ht="160" hidden="1">
+    <row r="1446" spans="1:5" ht="160">
       <c r="A1446" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51288,16 +51289,16 @@
         <v>2905</v>
       </c>
       <c r="C1446" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1446" s="1" t="s">
         <v>2990</v>
-      </c>
-      <c r="D1446" s="1" t="s">
-        <v>2991</v>
       </c>
       <c r="E1446" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1447" spans="1:5" ht="180" hidden="1">
+    <row r="1447" spans="1:5" ht="180">
       <c r="A1447" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51305,16 +51306,16 @@
         <v>2853</v>
       </c>
       <c r="C1447" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D1447" s="1" t="s">
         <v>2992</v>
-      </c>
-      <c r="D1447" s="1" t="s">
-        <v>2993</v>
       </c>
       <c r="E1447" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1448" spans="1:5" ht="180" hidden="1">
+    <row r="1448" spans="1:5" ht="180">
       <c r="A1448" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51322,10 +51323,10 @@
         <v>2853</v>
       </c>
       <c r="C1448" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D1448" s="1" t="s">
         <v>2994</v>
-      </c>
-      <c r="D1448" s="1" t="s">
-        <v>2995</v>
       </c>
       <c r="E1448" s="1" t="s">
         <v>24</v>
@@ -51339,16 +51340,16 @@
         <v>2919</v>
       </c>
       <c r="C1449" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D1449" s="1" t="s">
         <v>2996</v>
-      </c>
-      <c r="D1449" s="1" t="s">
-        <v>2997</v>
       </c>
       <c r="E1449" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1450" spans="1:5" ht="160" hidden="1">
+    <row r="1450" spans="1:5" ht="160">
       <c r="A1450" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51356,16 +51357,16 @@
         <v>2905</v>
       </c>
       <c r="C1450" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D1450" s="1" t="s">
         <v>2998</v>
-      </c>
-      <c r="D1450" s="1" t="s">
-        <v>2999</v>
       </c>
       <c r="E1450" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1451" spans="1:5" ht="240" hidden="1">
+    <row r="1451" spans="1:5" ht="240">
       <c r="A1451" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51373,10 +51374,10 @@
         <v>2853</v>
       </c>
       <c r="C1451" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D1451" s="1" t="s">
         <v>3000</v>
-      </c>
-      <c r="D1451" s="1" t="s">
-        <v>3001</v>
       </c>
       <c r="E1451" s="1" t="s">
         <v>4</v>
@@ -51390,10 +51391,10 @@
         <v>2876</v>
       </c>
       <c r="C1452" s="1" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D1452" s="1" t="s">
         <v>3002</v>
-      </c>
-      <c r="D1452" s="1" t="s">
-        <v>3003</v>
       </c>
       <c r="E1452" s="1" t="s">
         <v>10</v>
@@ -51404,19 +51405,19 @@
         <v>2849</v>
       </c>
       <c r="B1453" s="1" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C1453" s="1" t="s">
         <v>3004</v>
       </c>
-      <c r="C1453" s="1" t="s">
+      <c r="D1453" s="1" t="s">
         <v>3005</v>
-      </c>
-      <c r="D1453" s="1" t="s">
-        <v>3006</v>
       </c>
       <c r="E1453" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1454" spans="1:5" ht="160" hidden="1">
+    <row r="1454" spans="1:5" ht="160">
       <c r="A1454" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51424,16 +51425,16 @@
         <v>2853</v>
       </c>
       <c r="C1454" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D1454" s="1" t="s">
         <v>3007</v>
-      </c>
-      <c r="D1454" s="1" t="s">
-        <v>3008</v>
       </c>
       <c r="E1454" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1455" spans="1:5" ht="140" hidden="1">
+    <row r="1455" spans="1:5" ht="140">
       <c r="A1455" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51441,16 +51442,16 @@
         <v>2853</v>
       </c>
       <c r="C1455" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="D1455" s="1" t="s">
         <v>3009</v>
-      </c>
-      <c r="D1455" s="1" t="s">
-        <v>3010</v>
       </c>
       <c r="E1455" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1456" spans="1:5" ht="180" hidden="1">
+    <row r="1456" spans="1:5" ht="180">
       <c r="A1456" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51458,16 +51459,16 @@
         <v>2879</v>
       </c>
       <c r="C1456" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D1456" s="1" t="s">
         <v>3011</v>
-      </c>
-      <c r="D1456" s="1" t="s">
-        <v>3012</v>
       </c>
       <c r="E1456" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1457" spans="1:5" ht="140" hidden="1">
+    <row r="1457" spans="1:5" ht="140">
       <c r="A1457" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51475,16 +51476,16 @@
         <v>2853</v>
       </c>
       <c r="C1457" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="D1457" s="1" t="s">
         <v>3013</v>
-      </c>
-      <c r="D1457" s="1" t="s">
-        <v>3014</v>
       </c>
       <c r="E1457" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1458" spans="1:5" ht="200" hidden="1">
+    <row r="1458" spans="1:5" ht="200">
       <c r="A1458" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51492,16 +51493,16 @@
         <v>2879</v>
       </c>
       <c r="C1458" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D1458" s="1" t="s">
         <v>3015</v>
-      </c>
-      <c r="D1458" s="1" t="s">
-        <v>3016</v>
       </c>
       <c r="E1458" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1459" spans="1:5" ht="140" hidden="1">
+    <row r="1459" spans="1:5" ht="140">
       <c r="A1459" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51509,16 +51510,16 @@
         <v>2853</v>
       </c>
       <c r="C1459" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D1459" s="1" t="s">
         <v>3017</v>
-      </c>
-      <c r="D1459" s="1" t="s">
-        <v>3018</v>
       </c>
       <c r="E1459" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1460" spans="1:5" ht="140" hidden="1">
+    <row r="1460" spans="1:5" ht="140">
       <c r="A1460" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51526,16 +51527,16 @@
         <v>2853</v>
       </c>
       <c r="C1460" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D1460" s="1" t="s">
         <v>3019</v>
-      </c>
-      <c r="D1460" s="1" t="s">
-        <v>3020</v>
       </c>
       <c r="E1460" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1461" spans="1:5" ht="160" hidden="1">
+    <row r="1461" spans="1:5" ht="160">
       <c r="A1461" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51543,16 +51544,16 @@
         <v>2853</v>
       </c>
       <c r="C1461" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="D1461" s="1" t="s">
         <v>3021</v>
-      </c>
-      <c r="D1461" s="1" t="s">
-        <v>3022</v>
       </c>
       <c r="E1461" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1462" spans="1:5" ht="140" hidden="1">
+    <row r="1462" spans="1:5" ht="140">
       <c r="A1462" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51560,16 +51561,16 @@
         <v>2905</v>
       </c>
       <c r="C1462" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D1462" s="1" t="s">
         <v>3023</v>
-      </c>
-      <c r="D1462" s="1" t="s">
-        <v>3024</v>
       </c>
       <c r="E1462" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1463" spans="1:5" ht="180" hidden="1">
+    <row r="1463" spans="1:5" ht="180">
       <c r="A1463" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51577,16 +51578,16 @@
         <v>2905</v>
       </c>
       <c r="C1463" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D1463" s="1" t="s">
         <v>3025</v>
-      </c>
-      <c r="D1463" s="1" t="s">
-        <v>3026</v>
       </c>
       <c r="E1463" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1464" spans="1:5" ht="160" hidden="1">
+    <row r="1464" spans="1:5" ht="160">
       <c r="A1464" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51594,16 +51595,16 @@
         <v>2905</v>
       </c>
       <c r="C1464" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1464" s="1" t="s">
         <v>3027</v>
-      </c>
-      <c r="D1464" s="1" t="s">
-        <v>3028</v>
       </c>
       <c r="E1464" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1465" spans="1:5" ht="140" hidden="1">
+    <row r="1465" spans="1:5" ht="140">
       <c r="A1465" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51611,16 +51612,16 @@
         <v>2905</v>
       </c>
       <c r="C1465" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D1465" s="1" t="s">
         <v>3029</v>
-      </c>
-      <c r="D1465" s="1" t="s">
-        <v>3030</v>
       </c>
       <c r="E1465" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1466" spans="1:5" ht="160" hidden="1">
+    <row r="1466" spans="1:5" ht="160">
       <c r="A1466" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51628,16 +51629,16 @@
         <v>2905</v>
       </c>
       <c r="C1466" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D1466" s="1" t="s">
         <v>3031</v>
-      </c>
-      <c r="D1466" s="1" t="s">
-        <v>3032</v>
       </c>
       <c r="E1466" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1467" spans="1:5" ht="140" hidden="1">
+    <row r="1467" spans="1:5" ht="140">
       <c r="A1467" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51645,16 +51646,16 @@
         <v>2879</v>
       </c>
       <c r="C1467" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1467" s="1" t="s">
         <v>3033</v>
-      </c>
-      <c r="D1467" s="1" t="s">
-        <v>3034</v>
       </c>
       <c r="E1467" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1468" spans="1:5" ht="180" hidden="1">
+    <row r="1468" spans="1:5" ht="180">
       <c r="A1468" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51662,16 +51663,16 @@
         <v>2879</v>
       </c>
       <c r="C1468" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1468" s="1" t="s">
         <v>3035</v>
-      </c>
-      <c r="D1468" s="1" t="s">
-        <v>3036</v>
       </c>
       <c r="E1468" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1469" spans="1:5" ht="220" hidden="1">
+    <row r="1469" spans="1:5" ht="220">
       <c r="A1469" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51679,16 +51680,16 @@
         <v>2879</v>
       </c>
       <c r="C1469" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D1469" s="1" t="s">
         <v>3037</v>
-      </c>
-      <c r="D1469" s="1" t="s">
-        <v>3038</v>
       </c>
       <c r="E1469" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1470" spans="1:5" ht="140" hidden="1">
+    <row r="1470" spans="1:5" ht="140">
       <c r="A1470" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51696,10 +51697,10 @@
         <v>2853</v>
       </c>
       <c r="C1470" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D1470" s="1" t="s">
         <v>3039</v>
-      </c>
-      <c r="D1470" s="1" t="s">
-        <v>3040</v>
       </c>
       <c r="E1470" s="1" t="s">
         <v>24</v>
@@ -51713,16 +51714,16 @@
         <v>2867</v>
       </c>
       <c r="C1471" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D1471" s="1" t="s">
         <v>3041</v>
-      </c>
-      <c r="D1471" s="1" t="s">
-        <v>3042</v>
       </c>
       <c r="E1471" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1472" spans="1:5" ht="160" hidden="1">
+    <row r="1472" spans="1:5" ht="160">
       <c r="A1472" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51730,16 +51731,16 @@
         <v>2853</v>
       </c>
       <c r="C1472" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D1472" s="1" t="s">
         <v>3043</v>
-      </c>
-      <c r="D1472" s="1" t="s">
-        <v>3044</v>
       </c>
       <c r="E1472" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1473" spans="1:5" ht="240" hidden="1">
+    <row r="1473" spans="1:5" ht="240">
       <c r="A1473" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51747,16 +51748,16 @@
         <v>2853</v>
       </c>
       <c r="C1473" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D1473" s="1" t="s">
         <v>3045</v>
-      </c>
-      <c r="D1473" s="1" t="s">
-        <v>3046</v>
       </c>
       <c r="E1473" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1474" spans="1:5" ht="140" hidden="1">
+    <row r="1474" spans="1:5" ht="140">
       <c r="A1474" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51764,16 +51765,16 @@
         <v>2853</v>
       </c>
       <c r="C1474" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D1474" s="1" t="s">
         <v>3047</v>
-      </c>
-      <c r="D1474" s="1" t="s">
-        <v>3048</v>
       </c>
       <c r="E1474" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1475" spans="1:5" ht="160" hidden="1">
+    <row r="1475" spans="1:5" ht="160">
       <c r="A1475" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51781,16 +51782,16 @@
         <v>2905</v>
       </c>
       <c r="C1475" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D1475" s="1" t="s">
         <v>3049</v>
-      </c>
-      <c r="D1475" s="1" t="s">
-        <v>3050</v>
       </c>
       <c r="E1475" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1476" spans="1:5" ht="160" hidden="1">
+    <row r="1476" spans="1:5" ht="160">
       <c r="A1476" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51798,16 +51799,16 @@
         <v>2853</v>
       </c>
       <c r="C1476" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D1476" s="1" t="s">
         <v>3051</v>
-      </c>
-      <c r="D1476" s="1" t="s">
-        <v>3052</v>
       </c>
       <c r="E1476" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1477" spans="1:5" ht="160" hidden="1">
+    <row r="1477" spans="1:5" ht="160">
       <c r="A1477" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51815,16 +51816,16 @@
         <v>2905</v>
       </c>
       <c r="C1477" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D1477" s="1" t="s">
         <v>3053</v>
-      </c>
-      <c r="D1477" s="1" t="s">
-        <v>3054</v>
       </c>
       <c r="E1477" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1478" spans="1:5" ht="240" hidden="1">
+    <row r="1478" spans="1:5" ht="240">
       <c r="A1478" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51832,10 +51833,10 @@
         <v>2853</v>
       </c>
       <c r="C1478" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D1478" s="1" t="s">
         <v>3055</v>
-      </c>
-      <c r="D1478" s="1" t="s">
-        <v>3056</v>
       </c>
       <c r="E1478" s="1" t="s">
         <v>4</v>
@@ -51849,16 +51850,16 @@
         <v>2856</v>
       </c>
       <c r="C1479" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1479" s="1" t="s">
         <v>3057</v>
-      </c>
-      <c r="D1479" s="1" t="s">
-        <v>3058</v>
       </c>
       <c r="E1479" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1480" spans="1:5" ht="140" hidden="1">
+    <row r="1480" spans="1:5" ht="140">
       <c r="A1480" s="1" t="s">
         <v>2849</v>
       </c>
@@ -51866,10 +51867,10 @@
         <v>2905</v>
       </c>
       <c r="C1480" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D1480" s="1" t="s">
         <v>3059</v>
-      </c>
-      <c r="D1480" s="1" t="s">
-        <v>3060</v>
       </c>
       <c r="E1480" s="1" t="s">
         <v>10</v>
@@ -51877,16 +51878,16 @@
     </row>
     <row r="1481" spans="1:5" ht="240" hidden="1">
       <c r="A1481" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1481" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1481" s="1" t="s">
+      <c r="C1481" s="1" t="s">
         <v>3062</v>
       </c>
-      <c r="C1481" s="1" t="s">
+      <c r="D1481" s="1" t="s">
         <v>3063</v>
-      </c>
-      <c r="D1481" s="1" t="s">
-        <v>3064</v>
       </c>
       <c r="E1481" s="1" t="s">
         <v>4</v>
@@ -51894,16 +51895,16 @@
     </row>
     <row r="1482" spans="1:5" ht="320" hidden="1">
       <c r="A1482" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1482" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1482" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1482" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D1482" s="1" t="s">
         <v>3065</v>
-      </c>
-      <c r="D1482" s="1" t="s">
-        <v>3066</v>
       </c>
       <c r="E1482" s="1" t="s">
         <v>24</v>
@@ -51911,16 +51912,16 @@
     </row>
     <row r="1483" spans="1:5" ht="200" hidden="1">
       <c r="A1483" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1483" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1483" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1483" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D1483" s="1" t="s">
         <v>3067</v>
-      </c>
-      <c r="D1483" s="1" t="s">
-        <v>3068</v>
       </c>
       <c r="E1483" s="1" t="s">
         <v>21</v>
@@ -51928,16 +51929,16 @@
     </row>
     <row r="1484" spans="1:5" ht="140" hidden="1">
       <c r="A1484" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1484" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C1484" s="1" t="s">
         <v>3069</v>
       </c>
-      <c r="C1484" s="1" t="s">
+      <c r="D1484" s="1" t="s">
         <v>3070</v>
-      </c>
-      <c r="D1484" s="1" t="s">
-        <v>3071</v>
       </c>
       <c r="E1484" s="1" t="s">
         <v>4</v>
@@ -51945,16 +51946,16 @@
     </row>
     <row r="1485" spans="1:5" ht="200" hidden="1">
       <c r="A1485" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1485" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1485" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1485" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D1485" s="1" t="s">
         <v>3072</v>
-      </c>
-      <c r="D1485" s="1" t="s">
-        <v>3073</v>
       </c>
       <c r="E1485" s="1" t="s">
         <v>21</v>
@@ -51962,16 +51963,16 @@
     </row>
     <row r="1486" spans="1:5" ht="320" hidden="1">
       <c r="A1486" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1486" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1486" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1486" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D1486" s="1" t="s">
         <v>3074</v>
-      </c>
-      <c r="D1486" s="1" t="s">
-        <v>3075</v>
       </c>
       <c r="E1486" s="1" t="s">
         <v>21</v>
@@ -51979,16 +51980,16 @@
     </row>
     <row r="1487" spans="1:5" ht="120" hidden="1">
       <c r="A1487" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1487" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1487" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D1487" s="1" t="s">
         <v>3076</v>
-      </c>
-      <c r="D1487" s="1" t="s">
-        <v>3077</v>
       </c>
       <c r="E1487" s="1" t="s">
         <v>24</v>
@@ -51996,16 +51997,16 @@
     </row>
     <row r="1488" spans="1:5" ht="120" hidden="1">
       <c r="A1488" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1488" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1488" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1488" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D1488" s="1" t="s">
         <v>3078</v>
-      </c>
-      <c r="D1488" s="1" t="s">
-        <v>3079</v>
       </c>
       <c r="E1488" s="1" t="s">
         <v>10</v>
@@ -52013,16 +52014,16 @@
     </row>
     <row r="1489" spans="1:5" ht="120" hidden="1">
       <c r="A1489" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1489" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C1489" s="1" t="s">
         <v>3080</v>
       </c>
-      <c r="C1489" s="1" t="s">
+      <c r="D1489" s="1" t="s">
         <v>3081</v>
-      </c>
-      <c r="D1489" s="1" t="s">
-        <v>3082</v>
       </c>
       <c r="E1489" s="1" t="s">
         <v>4</v>
@@ -52030,16 +52031,16 @@
     </row>
     <row r="1490" spans="1:5" ht="340" hidden="1">
       <c r="A1490" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1490" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1490" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1490" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1490" s="1" t="s">
         <v>3083</v>
-      </c>
-      <c r="D1490" s="1" t="s">
-        <v>3084</v>
       </c>
       <c r="E1490" s="1" t="s">
         <v>4</v>
@@ -52047,16 +52048,16 @@
     </row>
     <row r="1491" spans="1:5" ht="340" hidden="1">
       <c r="A1491" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1491" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1491" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1491" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D1491" s="1" t="s">
         <v>3085</v>
-      </c>
-      <c r="D1491" s="1" t="s">
-        <v>3086</v>
       </c>
       <c r="E1491" s="1" t="s">
         <v>24</v>
@@ -52064,16 +52065,16 @@
     </row>
     <row r="1492" spans="1:5" ht="400" hidden="1">
       <c r="A1492" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1492" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1492" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1492" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D1492" s="1" t="s">
         <v>3087</v>
-      </c>
-      <c r="D1492" s="1" t="s">
-        <v>3088</v>
       </c>
       <c r="E1492" s="1" t="s">
         <v>4</v>
@@ -52081,16 +52082,16 @@
     </row>
     <row r="1493" spans="1:5" ht="120" hidden="1">
       <c r="A1493" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1493" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1493" s="1" t="s">
         <v>3089</v>
       </c>
-      <c r="C1493" s="1" t="s">
+      <c r="D1493" s="1" t="s">
         <v>3090</v>
-      </c>
-      <c r="D1493" s="1" t="s">
-        <v>3091</v>
       </c>
       <c r="E1493" s="1" t="s">
         <v>24</v>
@@ -52098,16 +52099,16 @@
     </row>
     <row r="1494" spans="1:5" ht="280" hidden="1">
       <c r="A1494" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1494" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1494" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1494" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D1494" s="1" t="s">
         <v>3092</v>
-      </c>
-      <c r="D1494" s="1" t="s">
-        <v>3093</v>
       </c>
       <c r="E1494" s="1" t="s">
         <v>24</v>
@@ -52115,16 +52116,16 @@
     </row>
     <row r="1495" spans="1:5" ht="200" hidden="1">
       <c r="A1495" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1495" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1495" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1495" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D1495" s="1" t="s">
         <v>3094</v>
-      </c>
-      <c r="D1495" s="1" t="s">
-        <v>3095</v>
       </c>
       <c r="E1495" s="1" t="s">
         <v>21</v>
@@ -52132,16 +52133,16 @@
     </row>
     <row r="1496" spans="1:5" ht="240" hidden="1">
       <c r="A1496" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1496" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1496" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1496" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D1496" s="1" t="s">
         <v>3096</v>
-      </c>
-      <c r="D1496" s="1" t="s">
-        <v>3097</v>
       </c>
       <c r="E1496" s="1" t="s">
         <v>10</v>
@@ -52149,16 +52150,16 @@
     </row>
     <row r="1497" spans="1:5" ht="120" hidden="1">
       <c r="A1497" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1497" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C1497" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D1497" s="1" t="s">
         <v>3098</v>
-      </c>
-      <c r="D1497" s="1" t="s">
-        <v>3099</v>
       </c>
       <c r="E1497" s="1" t="s">
         <v>4</v>
@@ -52166,16 +52167,16 @@
     </row>
     <row r="1498" spans="1:5" ht="220" hidden="1">
       <c r="A1498" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1498" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1498" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1498" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D1498" s="1" t="s">
         <v>3100</v>
-      </c>
-      <c r="D1498" s="1" t="s">
-        <v>3101</v>
       </c>
       <c r="E1498" s="1" t="s">
         <v>10</v>
@@ -52183,16 +52184,16 @@
     </row>
     <row r="1499" spans="1:5" ht="260" hidden="1">
       <c r="A1499" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1499" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1499" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1499" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="D1499" s="1" t="s">
         <v>3102</v>
-      </c>
-      <c r="D1499" s="1" t="s">
-        <v>3103</v>
       </c>
       <c r="E1499" s="1" t="s">
         <v>21</v>
@@ -52200,16 +52201,16 @@
     </row>
     <row r="1500" spans="1:5" ht="120" hidden="1">
       <c r="A1500" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1500" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C1500" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D1500" s="1" t="s">
         <v>3104</v>
-      </c>
-      <c r="D1500" s="1" t="s">
-        <v>3105</v>
       </c>
       <c r="E1500" s="1" t="s">
         <v>21</v>
@@ -52217,16 +52218,16 @@
     </row>
     <row r="1501" spans="1:5" ht="240" hidden="1">
       <c r="A1501" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1501" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1501" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1501" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D1501" s="1" t="s">
         <v>3106</v>
-      </c>
-      <c r="D1501" s="1" t="s">
-        <v>3107</v>
       </c>
       <c r="E1501" s="1" t="s">
         <v>4</v>
@@ -52234,16 +52235,16 @@
     </row>
     <row r="1502" spans="1:5" ht="200" hidden="1">
       <c r="A1502" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1502" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1502" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1502" s="1" t="s">
+        <v>3107</v>
+      </c>
+      <c r="D1502" s="1" t="s">
         <v>3108</v>
-      </c>
-      <c r="D1502" s="1" t="s">
-        <v>3109</v>
       </c>
       <c r="E1502" s="1" t="s">
         <v>10</v>
@@ -52251,16 +52252,16 @@
     </row>
     <row r="1503" spans="1:5" ht="160" hidden="1">
       <c r="A1503" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1503" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1503" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1503" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D1503" s="1" t="s">
         <v>3110</v>
-      </c>
-      <c r="D1503" s="1" t="s">
-        <v>3111</v>
       </c>
       <c r="E1503" s="1" t="s">
         <v>24</v>
@@ -52268,16 +52269,16 @@
     </row>
     <row r="1504" spans="1:5" ht="120" hidden="1">
       <c r="A1504" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1504" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C1504" s="1" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D1504" s="1" t="s">
         <v>3112</v>
-      </c>
-      <c r="D1504" s="1" t="s">
-        <v>3113</v>
       </c>
       <c r="E1504" s="1" t="s">
         <v>4</v>
@@ -52285,16 +52286,16 @@
     </row>
     <row r="1505" spans="1:5" ht="120" hidden="1">
       <c r="A1505" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1505" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C1505" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D1505" s="1" t="s">
         <v>3114</v>
-      </c>
-      <c r="D1505" s="1" t="s">
-        <v>3115</v>
       </c>
       <c r="E1505" s="1" t="s">
         <v>24</v>
@@ -52302,16 +52303,16 @@
     </row>
     <row r="1506" spans="1:5" ht="360" hidden="1">
       <c r="A1506" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1506" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1506" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1506" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D1506" s="1" t="s">
         <v>3116</v>
-      </c>
-      <c r="D1506" s="1" t="s">
-        <v>3117</v>
       </c>
       <c r="E1506" s="1" t="s">
         <v>24</v>
@@ -52319,16 +52320,16 @@
     </row>
     <row r="1507" spans="1:5" ht="120" hidden="1">
       <c r="A1507" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1507" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1507" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1507" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D1507" s="1" t="s">
         <v>3118</v>
-      </c>
-      <c r="D1507" s="1" t="s">
-        <v>3119</v>
       </c>
       <c r="E1507" s="1" t="s">
         <v>4</v>
@@ -52336,16 +52337,16 @@
     </row>
     <row r="1508" spans="1:5" ht="380" hidden="1">
       <c r="A1508" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1508" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1508" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1508" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D1508" s="1" t="s">
         <v>3120</v>
-      </c>
-      <c r="D1508" s="1" t="s">
-        <v>3121</v>
       </c>
       <c r="E1508" s="1" t="s">
         <v>4</v>
@@ -52353,16 +52354,16 @@
     </row>
     <row r="1509" spans="1:5" ht="180" hidden="1">
       <c r="A1509" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1509" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1509" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1509" s="1" t="s">
         <v>3122</v>
-      </c>
-      <c r="D1509" s="1" t="s">
-        <v>3123</v>
       </c>
       <c r="E1509" s="1" t="s">
         <v>24</v>
@@ -52370,16 +52371,16 @@
     </row>
     <row r="1510" spans="1:5" ht="120" hidden="1">
       <c r="A1510" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1510" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1510" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D1510" s="1" t="s">
         <v>3124</v>
-      </c>
-      <c r="D1510" s="1" t="s">
-        <v>3125</v>
       </c>
       <c r="E1510" s="1" t="s">
         <v>10</v>
@@ -52387,16 +52388,16 @@
     </row>
     <row r="1511" spans="1:5" ht="140" hidden="1">
       <c r="A1511" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1511" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1511" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D1511" s="1" t="s">
         <v>3126</v>
-      </c>
-      <c r="D1511" s="1" t="s">
-        <v>3127</v>
       </c>
       <c r="E1511" s="1" t="s">
         <v>21</v>
@@ -52404,16 +52405,16 @@
     </row>
     <row r="1512" spans="1:5" ht="200" hidden="1">
       <c r="A1512" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1512" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1512" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D1512" s="1" t="s">
         <v>3128</v>
-      </c>
-      <c r="D1512" s="1" t="s">
-        <v>3129</v>
       </c>
       <c r="E1512" s="1" t="s">
         <v>10</v>
@@ -52421,16 +52422,16 @@
     </row>
     <row r="1513" spans="1:5" ht="140" hidden="1">
       <c r="A1513" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1513" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C1513" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="D1513" s="1" t="s">
         <v>3130</v>
-      </c>
-      <c r="D1513" s="1" t="s">
-        <v>3131</v>
       </c>
       <c r="E1513" s="1" t="s">
         <v>24</v>
@@ -52438,16 +52439,16 @@
     </row>
     <row r="1514" spans="1:5" ht="120" hidden="1">
       <c r="A1514" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1514" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1514" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D1514" s="1" t="s">
         <v>3132</v>
-      </c>
-      <c r="D1514" s="1" t="s">
-        <v>3133</v>
       </c>
       <c r="E1514" s="1" t="s">
         <v>4</v>
@@ -52455,16 +52456,16 @@
     </row>
     <row r="1515" spans="1:5" ht="380" hidden="1">
       <c r="A1515" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1515" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1515" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1515" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D1515" s="1" t="s">
         <v>3134</v>
-      </c>
-      <c r="D1515" s="1" t="s">
-        <v>3135</v>
       </c>
       <c r="E1515" s="1" t="s">
         <v>24</v>
@@ -52472,16 +52473,16 @@
     </row>
     <row r="1516" spans="1:5" ht="320" hidden="1">
       <c r="A1516" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1516" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1516" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1516" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D1516" s="1" t="s">
         <v>3136</v>
-      </c>
-      <c r="D1516" s="1" t="s">
-        <v>3137</v>
       </c>
       <c r="E1516" s="1" t="s">
         <v>24</v>
@@ -52489,16 +52490,16 @@
     </row>
     <row r="1517" spans="1:5" ht="280" hidden="1">
       <c r="A1517" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1517" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1517" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1517" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1517" s="1" t="s">
         <v>3138</v>
-      </c>
-      <c r="D1517" s="1" t="s">
-        <v>3139</v>
       </c>
       <c r="E1517" s="1" t="s">
         <v>21</v>
@@ -52506,16 +52507,16 @@
     </row>
     <row r="1518" spans="1:5" ht="180" hidden="1">
       <c r="A1518" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1518" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1518" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1518" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D1518" s="1" t="s">
         <v>3140</v>
-      </c>
-      <c r="D1518" s="1" t="s">
-        <v>3141</v>
       </c>
       <c r="E1518" s="1" t="s">
         <v>10</v>
@@ -52523,16 +52524,16 @@
     </row>
     <row r="1519" spans="1:5" ht="200" hidden="1">
       <c r="A1519" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1519" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1519" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1519" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D1519" s="1" t="s">
         <v>3142</v>
-      </c>
-      <c r="D1519" s="1" t="s">
-        <v>3143</v>
       </c>
       <c r="E1519" s="1" t="s">
         <v>24</v>
@@ -52540,16 +52541,16 @@
     </row>
     <row r="1520" spans="1:5" ht="140" hidden="1">
       <c r="A1520" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1520" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D1520" s="1" t="s">
         <v>3144</v>
-      </c>
-      <c r="D1520" s="1" t="s">
-        <v>3145</v>
       </c>
       <c r="E1520" s="1" t="s">
         <v>21</v>
@@ -52557,16 +52558,16 @@
     </row>
     <row r="1521" spans="1:5" ht="200" hidden="1">
       <c r="A1521" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1521" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D1521" s="1" t="s">
         <v>3146</v>
-      </c>
-      <c r="D1521" s="1" t="s">
-        <v>3147</v>
       </c>
       <c r="E1521" s="1" t="s">
         <v>24</v>
@@ -52574,16 +52575,16 @@
     </row>
     <row r="1522" spans="1:5" ht="220" hidden="1">
       <c r="A1522" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1522" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1522" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1522" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D1522" s="1" t="s">
         <v>3148</v>
-      </c>
-      <c r="D1522" s="1" t="s">
-        <v>3149</v>
       </c>
       <c r="E1522" s="1" t="s">
         <v>24</v>
@@ -52591,16 +52592,16 @@
     </row>
     <row r="1523" spans="1:5" ht="120" hidden="1">
       <c r="A1523" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C1523" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D1523" s="1" t="s">
         <v>3150</v>
-      </c>
-      <c r="D1523" s="1" t="s">
-        <v>3151</v>
       </c>
       <c r="E1523" s="1" t="s">
         <v>24</v>
@@ -52608,16 +52609,16 @@
     </row>
     <row r="1524" spans="1:5" ht="140" hidden="1">
       <c r="A1524" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1524" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D1524" s="1" t="s">
         <v>3152</v>
-      </c>
-      <c r="D1524" s="1" t="s">
-        <v>3153</v>
       </c>
       <c r="E1524" s="1" t="s">
         <v>21</v>
@@ -52625,16 +52626,16 @@
     </row>
     <row r="1525" spans="1:5" ht="360" hidden="1">
       <c r="A1525" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1525" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1525" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1525" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D1525" s="1" t="s">
         <v>3154</v>
-      </c>
-      <c r="D1525" s="1" t="s">
-        <v>3155</v>
       </c>
       <c r="E1525" s="1" t="s">
         <v>24</v>
@@ -52642,16 +52643,16 @@
     </row>
     <row r="1526" spans="1:5" ht="240" hidden="1">
       <c r="A1526" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1526" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1526" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1526" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D1526" s="1" t="s">
         <v>3156</v>
-      </c>
-      <c r="D1526" s="1" t="s">
-        <v>3157</v>
       </c>
       <c r="E1526" s="1" t="s">
         <v>10</v>
@@ -52659,16 +52660,16 @@
     </row>
     <row r="1527" spans="1:5" ht="200" hidden="1">
       <c r="A1527" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1527" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1527" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1527" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D1527" s="1" t="s">
         <v>3158</v>
-      </c>
-      <c r="D1527" s="1" t="s">
-        <v>3159</v>
       </c>
       <c r="E1527" s="1" t="s">
         <v>21</v>
@@ -52676,16 +52677,16 @@
     </row>
     <row r="1528" spans="1:5" ht="140" hidden="1">
       <c r="A1528" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1528" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1528" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1528" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D1528" s="1" t="s">
         <v>3160</v>
-      </c>
-      <c r="D1528" s="1" t="s">
-        <v>3161</v>
       </c>
       <c r="E1528" s="1" t="s">
         <v>24</v>
@@ -52693,16 +52694,16 @@
     </row>
     <row r="1529" spans="1:5" ht="160" hidden="1">
       <c r="A1529" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1529" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1529" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1529" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1529" s="1" t="s">
         <v>3162</v>
-      </c>
-      <c r="D1529" s="1" t="s">
-        <v>3163</v>
       </c>
       <c r="E1529" s="1" t="s">
         <v>21</v>
@@ -52710,16 +52711,16 @@
     </row>
     <row r="1530" spans="1:5" ht="280" hidden="1">
       <c r="A1530" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1530" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1530" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1530" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D1530" s="1" t="s">
         <v>3164</v>
-      </c>
-      <c r="D1530" s="1" t="s">
-        <v>3165</v>
       </c>
       <c r="E1530" s="1" t="s">
         <v>10</v>
@@ -52727,16 +52728,16 @@
     </row>
     <row r="1531" spans="1:5" ht="409.6" hidden="1">
       <c r="A1531" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1531" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1531" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1531" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D1531" s="1" t="s">
         <v>3166</v>
-      </c>
-      <c r="D1531" s="1" t="s">
-        <v>3167</v>
       </c>
       <c r="E1531" s="1" t="s">
         <v>4</v>
@@ -52744,16 +52745,16 @@
     </row>
     <row r="1532" spans="1:5" ht="120" hidden="1">
       <c r="A1532" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1532" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D1532" s="1" t="s">
         <v>3168</v>
-      </c>
-      <c r="D1532" s="1" t="s">
-        <v>3169</v>
       </c>
       <c r="E1532" s="1" t="s">
         <v>4</v>
@@ -52761,16 +52762,16 @@
     </row>
     <row r="1533" spans="1:5" ht="140" hidden="1">
       <c r="A1533" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1533" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1533" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D1533" s="1" t="s">
         <v>3170</v>
-      </c>
-      <c r="D1533" s="1" t="s">
-        <v>3171</v>
       </c>
       <c r="E1533" s="1" t="s">
         <v>21</v>
@@ -52778,16 +52779,16 @@
     </row>
     <row r="1534" spans="1:5" ht="120" hidden="1">
       <c r="A1534" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1534" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1534" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D1534" s="1" t="s">
         <v>3172</v>
-      </c>
-      <c r="D1534" s="1" t="s">
-        <v>3173</v>
       </c>
       <c r="E1534" s="1" t="s">
         <v>10</v>
@@ -52795,16 +52796,16 @@
     </row>
     <row r="1535" spans="1:5" ht="120" hidden="1">
       <c r="A1535" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1535" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1535" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1535" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D1535" s="1" t="s">
         <v>3174</v>
-      </c>
-      <c r="D1535" s="1" t="s">
-        <v>3175</v>
       </c>
       <c r="E1535" s="1" t="s">
         <v>24</v>
@@ -52812,16 +52813,16 @@
     </row>
     <row r="1536" spans="1:5" ht="160" hidden="1">
       <c r="A1536" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1536" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1536" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1536" s="1" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D1536" s="1" t="s">
         <v>3176</v>
-      </c>
-      <c r="D1536" s="1" t="s">
-        <v>3177</v>
       </c>
       <c r="E1536" s="1" t="s">
         <v>4</v>
@@ -52829,16 +52830,16 @@
     </row>
     <row r="1537" spans="1:5" ht="160" hidden="1">
       <c r="A1537" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1537" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1537" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1537" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D1537" s="1" t="s">
         <v>3178</v>
-      </c>
-      <c r="D1537" s="1" t="s">
-        <v>3179</v>
       </c>
       <c r="E1537" s="1" t="s">
         <v>10</v>
@@ -52846,16 +52847,16 @@
     </row>
     <row r="1538" spans="1:5" ht="220" hidden="1">
       <c r="A1538" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1538" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D1538" s="1" t="s">
         <v>3180</v>
-      </c>
-      <c r="D1538" s="1" t="s">
-        <v>3181</v>
       </c>
       <c r="E1538" s="1" t="s">
         <v>21</v>
@@ -52863,16 +52864,16 @@
     </row>
     <row r="1539" spans="1:5" ht="160" hidden="1">
       <c r="A1539" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1539" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1539" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1539" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D1539" s="1" t="s">
         <v>3182</v>
-      </c>
-      <c r="D1539" s="1" t="s">
-        <v>3183</v>
       </c>
       <c r="E1539" s="1" t="s">
         <v>24</v>
@@ -52880,16 +52881,16 @@
     </row>
     <row r="1540" spans="1:5" ht="120" hidden="1">
       <c r="A1540" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1540" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D1540" s="1" t="s">
         <v>3184</v>
-      </c>
-      <c r="D1540" s="1" t="s">
-        <v>3185</v>
       </c>
       <c r="E1540" s="1" t="s">
         <v>21</v>
@@ -52897,16 +52898,16 @@
     </row>
     <row r="1541" spans="1:5" ht="300" hidden="1">
       <c r="A1541" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1541" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1541" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1541" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D1541" s="1" t="s">
         <v>3186</v>
-      </c>
-      <c r="D1541" s="1" t="s">
-        <v>3187</v>
       </c>
       <c r="E1541" s="1" t="s">
         <v>4</v>
@@ -52914,16 +52915,16 @@
     </row>
     <row r="1542" spans="1:5" ht="180" hidden="1">
       <c r="A1542" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1542" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1542" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1542" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D1542" s="1" t="s">
         <v>3188</v>
-      </c>
-      <c r="D1542" s="1" t="s">
-        <v>3189</v>
       </c>
       <c r="E1542" s="1" t="s">
         <v>21</v>
@@ -52931,16 +52932,16 @@
     </row>
     <row r="1543" spans="1:5" ht="120" hidden="1">
       <c r="A1543" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C1543" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D1543" s="1" t="s">
         <v>3190</v>
-      </c>
-      <c r="D1543" s="1" t="s">
-        <v>3191</v>
       </c>
       <c r="E1543" s="1" t="s">
         <v>24</v>
@@ -52948,16 +52949,16 @@
     </row>
     <row r="1544" spans="1:5" ht="140" hidden="1">
       <c r="A1544" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1544" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1544" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1544" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D1544" s="1" t="s">
         <v>3192</v>
-      </c>
-      <c r="D1544" s="1" t="s">
-        <v>3193</v>
       </c>
       <c r="E1544" s="1" t="s">
         <v>24</v>
@@ -52965,16 +52966,16 @@
     </row>
     <row r="1545" spans="1:5" ht="120" hidden="1">
       <c r="A1545" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1545" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1545" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="D1545" s="1" t="s">
         <v>3194</v>
-      </c>
-      <c r="D1545" s="1" t="s">
-        <v>3195</v>
       </c>
       <c r="E1545" s="1" t="s">
         <v>24</v>
@@ -52982,16 +52983,16 @@
     </row>
     <row r="1546" spans="1:5" ht="120" hidden="1">
       <c r="A1546" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C1546" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D1546" s="1" t="s">
         <v>3196</v>
-      </c>
-      <c r="D1546" s="1" t="s">
-        <v>3197</v>
       </c>
       <c r="E1546" s="1" t="s">
         <v>24</v>
@@ -52999,16 +53000,16 @@
     </row>
     <row r="1547" spans="1:5" ht="180" hidden="1">
       <c r="A1547" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1547" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1547" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1547" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D1547" s="1" t="s">
         <v>3198</v>
-      </c>
-      <c r="D1547" s="1" t="s">
-        <v>3199</v>
       </c>
       <c r="E1547" s="1" t="s">
         <v>24</v>
@@ -53016,16 +53017,16 @@
     </row>
     <row r="1548" spans="1:5" ht="120" hidden="1">
       <c r="A1548" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1548" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="D1548" s="1" t="s">
         <v>3200</v>
-      </c>
-      <c r="D1548" s="1" t="s">
-        <v>3201</v>
       </c>
       <c r="E1548" s="1" t="s">
         <v>24</v>
@@ -53033,16 +53034,16 @@
     </row>
     <row r="1549" spans="1:5" ht="140" hidden="1">
       <c r="A1549" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1549" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D1549" s="1" t="s">
         <v>3202</v>
-      </c>
-      <c r="D1549" s="1" t="s">
-        <v>3203</v>
       </c>
       <c r="E1549" s="1" t="s">
         <v>24</v>
@@ -53050,16 +53051,16 @@
     </row>
     <row r="1550" spans="1:5" ht="160" hidden="1">
       <c r="A1550" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1550" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="D1550" s="1" t="s">
         <v>3204</v>
-      </c>
-      <c r="D1550" s="1" t="s">
-        <v>3205</v>
       </c>
       <c r="E1550" s="1" t="s">
         <v>21</v>
@@ -53067,16 +53068,16 @@
     </row>
     <row r="1551" spans="1:5" ht="120" hidden="1">
       <c r="A1551" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1551" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D1551" s="1" t="s">
         <v>3206</v>
-      </c>
-      <c r="D1551" s="1" t="s">
-        <v>3207</v>
       </c>
       <c r="E1551" s="1" t="s">
         <v>24</v>
@@ -53084,16 +53085,16 @@
     </row>
     <row r="1552" spans="1:5" ht="220" hidden="1">
       <c r="A1552" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1552" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1552" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1552" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D1552" s="1" t="s">
         <v>3208</v>
-      </c>
-      <c r="D1552" s="1" t="s">
-        <v>3209</v>
       </c>
       <c r="E1552" s="1" t="s">
         <v>21</v>
@@ -53101,16 +53102,16 @@
     </row>
     <row r="1553" spans="1:5" ht="300" hidden="1">
       <c r="A1553" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1553" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1553" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1553" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D1553" s="1" t="s">
         <v>3210</v>
-      </c>
-      <c r="D1553" s="1" t="s">
-        <v>3211</v>
       </c>
       <c r="E1553" s="1" t="s">
         <v>4</v>
@@ -53118,16 +53119,16 @@
     </row>
     <row r="1554" spans="1:5" ht="120" hidden="1">
       <c r="A1554" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1554" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D1554" s="1" t="s">
         <v>3212</v>
-      </c>
-      <c r="D1554" s="1" t="s">
-        <v>3213</v>
       </c>
       <c r="E1554" s="1" t="s">
         <v>10</v>
@@ -53135,16 +53136,16 @@
     </row>
     <row r="1555" spans="1:5" ht="180" hidden="1">
       <c r="A1555" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1555" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1555" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1555" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D1555" s="1" t="s">
         <v>3214</v>
-      </c>
-      <c r="D1555" s="1" t="s">
-        <v>3215</v>
       </c>
       <c r="E1555" s="1" t="s">
         <v>10</v>
@@ -53152,16 +53153,16 @@
     </row>
     <row r="1556" spans="1:5" ht="140" hidden="1">
       <c r="A1556" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C1556" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D1556" s="1" t="s">
         <v>3216</v>
-      </c>
-      <c r="D1556" s="1" t="s">
-        <v>3217</v>
       </c>
       <c r="E1556" s="1" t="s">
         <v>21</v>
@@ -53169,16 +53170,16 @@
     </row>
     <row r="1557" spans="1:5" ht="409.6" hidden="1">
       <c r="A1557" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1557" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1557" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1557" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D1557" s="1" t="s">
         <v>3218</v>
-      </c>
-      <c r="D1557" s="1" t="s">
-        <v>3219</v>
       </c>
       <c r="E1557" s="1" t="s">
         <v>10</v>
@@ -53186,16 +53187,16 @@
     </row>
     <row r="1558" spans="1:5" ht="140" hidden="1">
       <c r="A1558" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1558" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="D1558" s="1" t="s">
         <v>3220</v>
-      </c>
-      <c r="D1558" s="1" t="s">
-        <v>3221</v>
       </c>
       <c r="E1558" s="1" t="s">
         <v>21</v>
@@ -53203,16 +53204,16 @@
     </row>
     <row r="1559" spans="1:5" ht="140" hidden="1">
       <c r="A1559" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1559" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="D1559" s="1" t="s">
         <v>3222</v>
-      </c>
-      <c r="D1559" s="1" t="s">
-        <v>3223</v>
       </c>
       <c r="E1559" s="1" t="s">
         <v>10</v>
@@ -53220,16 +53221,16 @@
     </row>
     <row r="1560" spans="1:5" ht="200" hidden="1">
       <c r="A1560" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1560" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1560" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1560" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D1560" s="1" t="s">
         <v>3224</v>
-      </c>
-      <c r="D1560" s="1" t="s">
-        <v>3225</v>
       </c>
       <c r="E1560" s="1" t="s">
         <v>21</v>
@@ -53237,16 +53238,16 @@
     </row>
     <row r="1561" spans="1:5" ht="160" hidden="1">
       <c r="A1561" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1561" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D1561" s="1" t="s">
         <v>3226</v>
-      </c>
-      <c r="D1561" s="1" t="s">
-        <v>3227</v>
       </c>
       <c r="E1561" s="1" t="s">
         <v>21</v>
@@ -53254,16 +53255,16 @@
     </row>
     <row r="1562" spans="1:5" ht="120" hidden="1">
       <c r="A1562" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1562" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D1562" s="1" t="s">
         <v>3228</v>
-      </c>
-      <c r="D1562" s="1" t="s">
-        <v>3229</v>
       </c>
       <c r="E1562" s="1" t="s">
         <v>24</v>
@@ -53271,16 +53272,16 @@
     </row>
     <row r="1563" spans="1:5" ht="400" hidden="1">
       <c r="A1563" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1563" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1563" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1563" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D1563" s="1" t="s">
         <v>3230</v>
-      </c>
-      <c r="D1563" s="1" t="s">
-        <v>3231</v>
       </c>
       <c r="E1563" s="1" t="s">
         <v>21</v>
@@ -53288,16 +53289,16 @@
     </row>
     <row r="1564" spans="1:5" ht="300" hidden="1">
       <c r="A1564" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1564" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1564" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1564" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="D1564" s="1" t="s">
         <v>3232</v>
-      </c>
-      <c r="D1564" s="1" t="s">
-        <v>3233</v>
       </c>
       <c r="E1564" s="1" t="s">
         <v>4</v>
@@ -53305,16 +53306,16 @@
     </row>
     <row r="1565" spans="1:5" ht="140" hidden="1">
       <c r="A1565" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1565" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D1565" s="1" t="s">
         <v>3234</v>
-      </c>
-      <c r="D1565" s="1" t="s">
-        <v>3235</v>
       </c>
       <c r="E1565" s="1" t="s">
         <v>21</v>
@@ -53322,16 +53323,16 @@
     </row>
     <row r="1566" spans="1:5" ht="240" hidden="1">
       <c r="A1566" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1566" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1566" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1566" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D1566" s="1" t="s">
         <v>3236</v>
-      </c>
-      <c r="D1566" s="1" t="s">
-        <v>3237</v>
       </c>
       <c r="E1566" s="1" t="s">
         <v>10</v>
@@ -53339,16 +53340,16 @@
     </row>
     <row r="1567" spans="1:5" ht="340" hidden="1">
       <c r="A1567" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1567" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1567" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1567" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D1567" s="1" t="s">
         <v>3238</v>
-      </c>
-      <c r="D1567" s="1" t="s">
-        <v>3239</v>
       </c>
       <c r="E1567" s="1" t="s">
         <v>4</v>
@@ -53356,16 +53357,16 @@
     </row>
     <row r="1568" spans="1:5" ht="140" hidden="1">
       <c r="A1568" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1568" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D1568" s="1" t="s">
         <v>3240</v>
-      </c>
-      <c r="D1568" s="1" t="s">
-        <v>3241</v>
       </c>
       <c r="E1568" s="1" t="s">
         <v>21</v>
@@ -53373,16 +53374,16 @@
     </row>
     <row r="1569" spans="1:5" ht="380" hidden="1">
       <c r="A1569" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1569" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1569" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1569" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D1569" s="1" t="s">
         <v>3242</v>
-      </c>
-      <c r="D1569" s="1" t="s">
-        <v>3243</v>
       </c>
       <c r="E1569" s="1" t="s">
         <v>24</v>
@@ -53390,16 +53391,16 @@
     </row>
     <row r="1570" spans="1:5" ht="120" hidden="1">
       <c r="A1570" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1570" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D1570" s="1" t="s">
         <v>3244</v>
-      </c>
-      <c r="D1570" s="1" t="s">
-        <v>3245</v>
       </c>
       <c r="E1570" s="1" t="s">
         <v>21</v>
@@ -53407,16 +53408,16 @@
     </row>
     <row r="1571" spans="1:5" ht="240" hidden="1">
       <c r="A1571" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1571" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1571" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1571" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D1571" s="1" t="s">
         <v>3246</v>
-      </c>
-      <c r="D1571" s="1" t="s">
-        <v>3247</v>
       </c>
       <c r="E1571" s="1" t="s">
         <v>21</v>
@@ -53424,16 +53425,16 @@
     </row>
     <row r="1572" spans="1:5" ht="260" hidden="1">
       <c r="A1572" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1572" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1572" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1572" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D1572" s="1" t="s">
         <v>3248</v>
-      </c>
-      <c r="D1572" s="1" t="s">
-        <v>3249</v>
       </c>
       <c r="E1572" s="1" t="s">
         <v>21</v>
@@ -53441,16 +53442,16 @@
     </row>
     <row r="1573" spans="1:5" ht="120" hidden="1">
       <c r="A1573" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1573" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1573" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="D1573" s="1" t="s">
         <v>3250</v>
-      </c>
-      <c r="D1573" s="1" t="s">
-        <v>3251</v>
       </c>
       <c r="E1573" s="1" t="s">
         <v>4</v>
@@ -53458,16 +53459,16 @@
     </row>
     <row r="1574" spans="1:5" ht="360" hidden="1">
       <c r="A1574" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1574" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="B1574" s="1" t="s">
-        <v>3062</v>
-      </c>
       <c r="C1574" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="D1574" s="1" t="s">
         <v>3252</v>
-      </c>
-      <c r="D1574" s="1" t="s">
-        <v>3253</v>
       </c>
       <c r="E1574" s="1" t="s">
         <v>21</v>
@@ -53475,16 +53476,16 @@
     </row>
     <row r="1575" spans="1:5" ht="140" hidden="1">
       <c r="A1575" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1575" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="D1575" s="1" t="s">
         <v>3254</v>
-      </c>
-      <c r="D1575" s="1" t="s">
-        <v>3255</v>
       </c>
       <c r="E1575" s="1" t="s">
         <v>24</v>
@@ -53492,16 +53493,16 @@
     </row>
     <row r="1576" spans="1:5" ht="140" hidden="1">
       <c r="A1576" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C1576" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D1576" s="1" t="s">
         <v>3256</v>
-      </c>
-      <c r="D1576" s="1" t="s">
-        <v>3257</v>
       </c>
       <c r="E1576" s="1" t="s">
         <v>10</v>
@@ -53509,16 +53510,16 @@
     </row>
     <row r="1577" spans="1:5" ht="120" hidden="1">
       <c r="A1577" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C1577" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="D1577" s="1" t="s">
         <v>3258</v>
-      </c>
-      <c r="D1577" s="1" t="s">
-        <v>3259</v>
       </c>
       <c r="E1577" s="1" t="s">
         <v>10</v>
@@ -53526,16 +53527,16 @@
     </row>
     <row r="1578" spans="1:5" ht="120" hidden="1">
       <c r="A1578" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1578" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1578" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D1578" s="1" t="s">
         <v>3260</v>
-      </c>
-      <c r="D1578" s="1" t="s">
-        <v>3261</v>
       </c>
       <c r="E1578" s="1" t="s">
         <v>10</v>
@@ -53543,16 +53544,16 @@
     </row>
     <row r="1579" spans="1:5" ht="200" hidden="1">
       <c r="A1579" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="C1579" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D1579" s="1" t="s">
         <v>3262</v>
-      </c>
-      <c r="D1579" s="1" t="s">
-        <v>3263</v>
       </c>
       <c r="E1579" s="1" t="s">
         <v>4</v>
@@ -53560,16 +53561,16 @@
     </row>
     <row r="1580" spans="1:5" ht="160" hidden="1">
       <c r="A1580" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="C1580" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D1580" s="1" t="s">
         <v>3264</v>
-      </c>
-      <c r="D1580" s="1" t="s">
-        <v>3265</v>
       </c>
       <c r="E1580" s="1" t="s">
         <v>21</v>
@@ -53577,50 +53578,50 @@
     </row>
     <row r="1581" spans="1:5" ht="220" hidden="1">
       <c r="A1581" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1581" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1581" s="1" t="s">
+      <c r="C1581" s="1" t="s">
         <v>3267</v>
       </c>
-      <c r="C1581" s="1" t="s">
+      <c r="D1581" s="1" t="s">
         <v>3268</v>
-      </c>
-      <c r="D1581" s="1" t="s">
-        <v>3269</v>
       </c>
       <c r="E1581" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1582" spans="1:5" ht="260" hidden="1">
+    <row r="1582" spans="1:5" ht="260">
       <c r="A1582" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1582" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C1582" s="1" t="s">
         <v>3270</v>
       </c>
-      <c r="C1582" s="1" t="s">
+      <c r="D1582" s="1" t="s">
         <v>3271</v>
-      </c>
-      <c r="D1582" s="1" t="s">
-        <v>3272</v>
       </c>
       <c r="E1582" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1583" spans="1:5" ht="180" hidden="1">
+    <row r="1583" spans="1:5" ht="180">
       <c r="A1583" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1583" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D1583" s="1" t="s">
         <v>3273</v>
-      </c>
-      <c r="D1583" s="1" t="s">
-        <v>3274</v>
       </c>
       <c r="E1583" s="1" t="s">
         <v>10</v>
@@ -53628,16 +53629,16 @@
     </row>
     <row r="1584" spans="1:5" ht="120" hidden="1">
       <c r="A1584" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1584" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1584" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1584" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D1584" s="1" t="s">
         <v>3275</v>
-      </c>
-      <c r="D1584" s="1" t="s">
-        <v>3276</v>
       </c>
       <c r="E1584" s="1" t="s">
         <v>10</v>
@@ -53645,50 +53646,50 @@
     </row>
     <row r="1585" spans="1:5" ht="180" hidden="1">
       <c r="A1585" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1585" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1585" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1585" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D1585" s="1" t="s">
         <v>3277</v>
-      </c>
-      <c r="D1585" s="1" t="s">
-        <v>3278</v>
       </c>
       <c r="E1585" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1586" spans="1:5" ht="160" hidden="1">
+    <row r="1586" spans="1:5" ht="160">
       <c r="A1586" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1586" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="D1586" s="1" t="s">
         <v>3279</v>
-      </c>
-      <c r="D1586" s="1" t="s">
-        <v>3280</v>
       </c>
       <c r="E1586" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1587" spans="1:5" ht="180" hidden="1">
+    <row r="1587" spans="1:5" ht="180">
       <c r="A1587" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1587" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D1587" s="1" t="s">
         <v>3281</v>
-      </c>
-      <c r="D1587" s="1" t="s">
-        <v>3282</v>
       </c>
       <c r="E1587" s="1" t="s">
         <v>24</v>
@@ -53696,50 +53697,50 @@
     </row>
     <row r="1588" spans="1:5" ht="240" hidden="1">
       <c r="A1588" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1588" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1588" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1588" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D1588" s="1" t="s">
         <v>3283</v>
-      </c>
-      <c r="D1588" s="1" t="s">
-        <v>3284</v>
       </c>
       <c r="E1588" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1589" spans="1:5" ht="120" hidden="1">
+    <row r="1589" spans="1:5" ht="120">
       <c r="A1589" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1589" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D1589" s="1" t="s">
         <v>3285</v>
-      </c>
-      <c r="D1589" s="1" t="s">
-        <v>3286</v>
       </c>
       <c r="E1589" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1590" spans="1:5" ht="140" hidden="1">
+    <row r="1590" spans="1:5" ht="140">
       <c r="A1590" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1590" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="D1590" s="1" t="s">
         <v>3287</v>
-      </c>
-      <c r="D1590" s="1" t="s">
-        <v>3288</v>
       </c>
       <c r="E1590" s="1" t="s">
         <v>10</v>
@@ -53747,50 +53748,50 @@
     </row>
     <row r="1591" spans="1:5" ht="160" hidden="1">
       <c r="A1591" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1591" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1591" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1591" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D1591" s="1" t="s">
         <v>3289</v>
-      </c>
-      <c r="D1591" s="1" t="s">
-        <v>3290</v>
       </c>
       <c r="E1591" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1592" spans="1:5" ht="120" hidden="1">
+    <row r="1592" spans="1:5" ht="120">
       <c r="A1592" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1592" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D1592" s="1" t="s">
         <v>3291</v>
-      </c>
-      <c r="D1592" s="1" t="s">
-        <v>3292</v>
       </c>
       <c r="E1592" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1593" spans="1:5" ht="180" hidden="1">
+    <row r="1593" spans="1:5" ht="180">
       <c r="A1593" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1593" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1593" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D1593" s="1" t="s">
         <v>3293</v>
-      </c>
-      <c r="D1593" s="1" t="s">
-        <v>3294</v>
       </c>
       <c r="E1593" s="1" t="s">
         <v>10</v>
@@ -53798,16 +53799,16 @@
     </row>
     <row r="1594" spans="1:5" ht="120" hidden="1">
       <c r="A1594" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1594" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1594" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1594" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D1594" s="1" t="s">
         <v>3295</v>
-      </c>
-      <c r="D1594" s="1" t="s">
-        <v>3296</v>
       </c>
       <c r="E1594" s="1" t="s">
         <v>24</v>
@@ -53815,16 +53816,16 @@
     </row>
     <row r="1595" spans="1:5" ht="140" hidden="1">
       <c r="A1595" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1595" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1595" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1595" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D1595" s="1" t="s">
         <v>3297</v>
-      </c>
-      <c r="D1595" s="1" t="s">
-        <v>3298</v>
       </c>
       <c r="E1595" s="1" t="s">
         <v>10</v>
@@ -53832,50 +53833,50 @@
     </row>
     <row r="1596" spans="1:5" ht="140" hidden="1">
       <c r="A1596" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1596" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C1596" s="1" t="s">
         <v>3299</v>
       </c>
-      <c r="C1596" s="1" t="s">
+      <c r="D1596" s="1" t="s">
         <v>3300</v>
-      </c>
-      <c r="D1596" s="1" t="s">
-        <v>3301</v>
       </c>
       <c r="E1596" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1597" spans="1:5" ht="140" hidden="1">
+    <row r="1597" spans="1:5" ht="140">
       <c r="A1597" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1597" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D1597" s="1" t="s">
         <v>3302</v>
-      </c>
-      <c r="D1597" s="1" t="s">
-        <v>3303</v>
       </c>
       <c r="E1597" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1598" spans="1:5" ht="160" hidden="1">
+    <row r="1598" spans="1:5" ht="160">
       <c r="A1598" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1598" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D1598" s="1" t="s">
         <v>3304</v>
-      </c>
-      <c r="D1598" s="1" t="s">
-        <v>3305</v>
       </c>
       <c r="E1598" s="1" t="s">
         <v>21</v>
@@ -53883,16 +53884,16 @@
     </row>
     <row r="1599" spans="1:5" ht="140" hidden="1">
       <c r="A1599" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1599" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D1599" s="1" t="s">
         <v>3306</v>
-      </c>
-      <c r="D1599" s="1" t="s">
-        <v>3307</v>
       </c>
       <c r="E1599" s="1" t="s">
         <v>21</v>
@@ -53900,16 +53901,16 @@
     </row>
     <row r="1600" spans="1:5" ht="120" hidden="1">
       <c r="A1600" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1600" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1600" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D1600" s="1" t="s">
         <v>3308</v>
-      </c>
-      <c r="D1600" s="1" t="s">
-        <v>3309</v>
       </c>
       <c r="E1600" s="1" t="s">
         <v>24</v>
@@ -53917,16 +53918,16 @@
     </row>
     <row r="1601" spans="1:5" ht="120" hidden="1">
       <c r="A1601" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1601" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D1601" s="1" t="s">
         <v>3310</v>
-      </c>
-      <c r="D1601" s="1" t="s">
-        <v>3311</v>
       </c>
       <c r="E1601" s="1" t="s">
         <v>21</v>
@@ -53934,16 +53935,16 @@
     </row>
     <row r="1602" spans="1:5" ht="120" hidden="1">
       <c r="A1602" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1602" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1602" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1602" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D1602" s="1" t="s">
         <v>3312</v>
-      </c>
-      <c r="D1602" s="1" t="s">
-        <v>3313</v>
       </c>
       <c r="E1602" s="1" t="s">
         <v>24</v>
@@ -53951,33 +53952,33 @@
     </row>
     <row r="1603" spans="1:5" ht="140" hidden="1">
       <c r="A1603" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1603" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1603" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1603" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D1603" s="1" t="s">
         <v>3314</v>
-      </c>
-      <c r="D1603" s="1" t="s">
-        <v>3315</v>
       </c>
       <c r="E1603" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1604" spans="1:5" ht="280" hidden="1">
+    <row r="1604" spans="1:5" ht="280">
       <c r="A1604" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1604" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="D1604" s="1" t="s">
         <v>3316</v>
-      </c>
-      <c r="D1604" s="1" t="s">
-        <v>3317</v>
       </c>
       <c r="E1604" s="1" t="s">
         <v>24</v>
@@ -53985,16 +53986,16 @@
     </row>
     <row r="1605" spans="1:5" ht="120" hidden="1">
       <c r="A1605" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1605" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1605" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1605" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D1605" s="1" t="s">
         <v>3318</v>
-      </c>
-      <c r="D1605" s="1" t="s">
-        <v>3319</v>
       </c>
       <c r="E1605" s="1" t="s">
         <v>24</v>
@@ -54002,16 +54003,16 @@
     </row>
     <row r="1606" spans="1:5" ht="140" hidden="1">
       <c r="A1606" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1606" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1606" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1606" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D1606" s="1" t="s">
         <v>3320</v>
-      </c>
-      <c r="D1606" s="1" t="s">
-        <v>3321</v>
       </c>
       <c r="E1606" s="1" t="s">
         <v>4</v>
@@ -54019,16 +54020,16 @@
     </row>
     <row r="1607" spans="1:5" ht="140" hidden="1">
       <c r="A1607" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1607" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1607" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1607" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D1607" s="1" t="s">
         <v>3322</v>
-      </c>
-      <c r="D1607" s="1" t="s">
-        <v>3323</v>
       </c>
       <c r="E1607" s="1" t="s">
         <v>10</v>
@@ -54036,33 +54037,33 @@
     </row>
     <row r="1608" spans="1:5" ht="160" hidden="1">
       <c r="A1608" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1608" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1608" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1608" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D1608" s="1" t="s">
         <v>3324</v>
-      </c>
-      <c r="D1608" s="1" t="s">
-        <v>3325</v>
       </c>
       <c r="E1608" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1609" spans="1:5" ht="140" hidden="1">
+    <row r="1609" spans="1:5" ht="140">
       <c r="A1609" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1609" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="D1609" s="1" t="s">
         <v>3326</v>
-      </c>
-      <c r="D1609" s="1" t="s">
-        <v>3327</v>
       </c>
       <c r="E1609" s="1" t="s">
         <v>21</v>
@@ -54070,33 +54071,33 @@
     </row>
     <row r="1610" spans="1:5" ht="200" hidden="1">
       <c r="A1610" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1610" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1610" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1610" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D1610" s="1" t="s">
         <v>3328</v>
-      </c>
-      <c r="D1610" s="1" t="s">
-        <v>3329</v>
       </c>
       <c r="E1610" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1611" spans="1:5" ht="140" hidden="1">
+    <row r="1611" spans="1:5" ht="140">
       <c r="A1611" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1611" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D1611" s="1" t="s">
         <v>3330</v>
-      </c>
-      <c r="D1611" s="1" t="s">
-        <v>3331</v>
       </c>
       <c r="E1611" s="1" t="s">
         <v>4</v>
@@ -54104,16 +54105,16 @@
     </row>
     <row r="1612" spans="1:5" ht="200" hidden="1">
       <c r="A1612" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1612" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1612" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1612" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D1612" s="1" t="s">
         <v>3332</v>
-      </c>
-      <c r="D1612" s="1" t="s">
-        <v>3333</v>
       </c>
       <c r="E1612" s="1" t="s">
         <v>24</v>
@@ -54121,33 +54122,33 @@
     </row>
     <row r="1613" spans="1:5" ht="180" hidden="1">
       <c r="A1613" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1613" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D1613" s="1" t="s">
         <v>3334</v>
-      </c>
-      <c r="D1613" s="1" t="s">
-        <v>3335</v>
       </c>
       <c r="E1613" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1614" spans="1:5" ht="200" hidden="1">
+    <row r="1614" spans="1:5" ht="200">
       <c r="A1614" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1614" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1614" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D1614" s="1" t="s">
         <v>3336</v>
-      </c>
-      <c r="D1614" s="1" t="s">
-        <v>3337</v>
       </c>
       <c r="E1614" s="1" t="s">
         <v>4</v>
@@ -54155,33 +54156,33 @@
     </row>
     <row r="1615" spans="1:5" ht="140" hidden="1">
       <c r="A1615" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1615" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1615" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D1615" s="1" t="s">
         <v>3338</v>
-      </c>
-      <c r="D1615" s="1" t="s">
-        <v>3339</v>
       </c>
       <c r="E1615" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1616" spans="1:5" ht="120" hidden="1">
+    <row r="1616" spans="1:5" ht="120">
       <c r="A1616" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1616" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D1616" s="1" t="s">
         <v>3340</v>
-      </c>
-      <c r="D1616" s="1" t="s">
-        <v>3341</v>
       </c>
       <c r="E1616" s="1" t="s">
         <v>21</v>
@@ -54189,50 +54190,50 @@
     </row>
     <row r="1617" spans="1:5" ht="120" hidden="1">
       <c r="A1617" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1617" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D1617" s="1" t="s">
         <v>3342</v>
-      </c>
-      <c r="D1617" s="1" t="s">
-        <v>3343</v>
       </c>
       <c r="E1617" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1618" spans="1:5" ht="280" hidden="1">
+    <row r="1618" spans="1:5" ht="280">
       <c r="A1618" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1618" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D1618" s="1" t="s">
         <v>3344</v>
-      </c>
-      <c r="D1618" s="1" t="s">
-        <v>3345</v>
       </c>
       <c r="E1618" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1619" spans="1:5" ht="180" hidden="1">
+    <row r="1619" spans="1:5" ht="180">
       <c r="A1619" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1619" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D1619" s="1" t="s">
         <v>3346</v>
-      </c>
-      <c r="D1619" s="1" t="s">
-        <v>3347</v>
       </c>
       <c r="E1619" s="1" t="s">
         <v>24</v>
@@ -54240,84 +54241,84 @@
     </row>
     <row r="1620" spans="1:5" ht="140" hidden="1">
       <c r="A1620" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1620" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1620" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1620" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D1620" s="1" t="s">
         <v>3348</v>
-      </c>
-      <c r="D1620" s="1" t="s">
-        <v>3349</v>
       </c>
       <c r="E1620" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1621" spans="1:5" ht="140" hidden="1">
+    <row r="1621" spans="1:5" ht="140">
       <c r="A1621" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1621" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D1621" s="1" t="s">
         <v>3350</v>
-      </c>
-      <c r="D1621" s="1" t="s">
-        <v>3351</v>
       </c>
       <c r="E1621" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1622" spans="1:5" ht="120" hidden="1">
+    <row r="1622" spans="1:5" ht="120">
       <c r="A1622" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1622" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D1622" s="1" t="s">
         <v>3352</v>
-      </c>
-      <c r="D1622" s="1" t="s">
-        <v>3353</v>
       </c>
       <c r="E1622" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1623" spans="1:5" ht="140" hidden="1">
+    <row r="1623" spans="1:5" ht="140">
       <c r="A1623" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1623" s="1" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D1623" s="1" t="s">
         <v>3354</v>
-      </c>
-      <c r="D1623" s="1" t="s">
-        <v>3355</v>
       </c>
       <c r="E1623" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1624" spans="1:5" ht="140" hidden="1">
+    <row r="1624" spans="1:5" ht="140">
       <c r="A1624" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1624" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1624" s="1" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D1624" s="1" t="s">
         <v>3356</v>
-      </c>
-      <c r="D1624" s="1" t="s">
-        <v>3357</v>
       </c>
       <c r="E1624" s="1" t="s">
         <v>10</v>
@@ -54325,16 +54326,16 @@
     </row>
     <row r="1625" spans="1:5" ht="160" hidden="1">
       <c r="A1625" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1625" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1625" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1625" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D1625" s="1" t="s">
         <v>3358</v>
-      </c>
-      <c r="D1625" s="1" t="s">
-        <v>3359</v>
       </c>
       <c r="E1625" s="1" t="s">
         <v>4</v>
@@ -54342,16 +54343,16 @@
     </row>
     <row r="1626" spans="1:5" ht="160" hidden="1">
       <c r="A1626" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1626" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1626" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1626" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="D1626" s="1" t="s">
         <v>3360</v>
-      </c>
-      <c r="D1626" s="1" t="s">
-        <v>3361</v>
       </c>
       <c r="E1626" s="1" t="s">
         <v>24</v>
@@ -54359,33 +54360,33 @@
     </row>
     <row r="1627" spans="1:5" ht="140" hidden="1">
       <c r="A1627" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1627" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1627" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1627" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D1627" s="1" t="s">
         <v>3362</v>
-      </c>
-      <c r="D1627" s="1" t="s">
-        <v>3363</v>
       </c>
       <c r="E1627" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1628" spans="1:5" ht="220" hidden="1">
+    <row r="1628" spans="1:5" ht="220">
       <c r="A1628" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1628" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1628" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D1628" s="1" t="s">
         <v>3364</v>
-      </c>
-      <c r="D1628" s="1" t="s">
-        <v>3365</v>
       </c>
       <c r="E1628" s="1" t="s">
         <v>21</v>
@@ -54393,16 +54394,16 @@
     </row>
     <row r="1629" spans="1:5" ht="140" hidden="1">
       <c r="A1629" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1629" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D1629" s="1" t="s">
         <v>3366</v>
-      </c>
-      <c r="D1629" s="1" t="s">
-        <v>3367</v>
       </c>
       <c r="E1629" s="1" t="s">
         <v>21</v>
@@ -54410,16 +54411,16 @@
     </row>
     <row r="1630" spans="1:5" ht="120" hidden="1">
       <c r="A1630" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1630" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D1630" s="1" t="s">
         <v>3368</v>
-      </c>
-      <c r="D1630" s="1" t="s">
-        <v>3369</v>
       </c>
       <c r="E1630" s="1" t="s">
         <v>24</v>
@@ -54427,16 +54428,16 @@
     </row>
     <row r="1631" spans="1:5" ht="140" hidden="1">
       <c r="A1631" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1631" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1631" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1631" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D1631" s="1" t="s">
         <v>3370</v>
-      </c>
-      <c r="D1631" s="1" t="s">
-        <v>3371</v>
       </c>
       <c r="E1631" s="1" t="s">
         <v>24</v>
@@ -54444,16 +54445,16 @@
     </row>
     <row r="1632" spans="1:5" ht="220" hidden="1">
       <c r="A1632" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1632" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1632" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1632" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="D1632" s="1" t="s">
         <v>3372</v>
-      </c>
-      <c r="D1632" s="1" t="s">
-        <v>3373</v>
       </c>
       <c r="E1632" s="1" t="s">
         <v>4</v>
@@ -54461,16 +54462,16 @@
     </row>
     <row r="1633" spans="1:5" ht="140" hidden="1">
       <c r="A1633" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1633" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1633" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1633" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D1633" s="1" t="s">
         <v>3374</v>
-      </c>
-      <c r="D1633" s="1" t="s">
-        <v>3375</v>
       </c>
       <c r="E1633" s="1" t="s">
         <v>21</v>
@@ -54478,33 +54479,33 @@
     </row>
     <row r="1634" spans="1:5" ht="220" hidden="1">
       <c r="A1634" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1634" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1634" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1634" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D1634" s="1" t="s">
         <v>3376</v>
-      </c>
-      <c r="D1634" s="1" t="s">
-        <v>3377</v>
       </c>
       <c r="E1634" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1635" spans="1:5" ht="120" hidden="1">
+    <row r="1635" spans="1:5" ht="120">
       <c r="A1635" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1635" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D1635" s="1" t="s">
         <v>3378</v>
-      </c>
-      <c r="D1635" s="1" t="s">
-        <v>3379</v>
       </c>
       <c r="E1635" s="1" t="s">
         <v>21</v>
@@ -54512,16 +54513,16 @@
     </row>
     <row r="1636" spans="1:5" ht="140" hidden="1">
       <c r="A1636" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1636" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D1636" s="1" t="s">
         <v>3380</v>
-      </c>
-      <c r="D1636" s="1" t="s">
-        <v>3381</v>
       </c>
       <c r="E1636" s="1" t="s">
         <v>21</v>
@@ -54529,16 +54530,16 @@
     </row>
     <row r="1637" spans="1:5" ht="120" hidden="1">
       <c r="A1637" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1637" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1637" s="1" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D1637" s="1" t="s">
         <v>3382</v>
-      </c>
-      <c r="D1637" s="1" t="s">
-        <v>3383</v>
       </c>
       <c r="E1637" s="1" t="s">
         <v>4</v>
@@ -54546,16 +54547,16 @@
     </row>
     <row r="1638" spans="1:5" ht="180" hidden="1">
       <c r="A1638" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1638" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1638" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1638" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D1638" s="1" t="s">
         <v>3384</v>
-      </c>
-      <c r="D1638" s="1" t="s">
-        <v>3385</v>
       </c>
       <c r="E1638" s="1" t="s">
         <v>10</v>
@@ -54563,50 +54564,50 @@
     </row>
     <row r="1639" spans="1:5" ht="140" hidden="1">
       <c r="A1639" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1639" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1639" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1639" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1639" s="1" t="s">
         <v>3386</v>
-      </c>
-      <c r="D1639" s="1" t="s">
-        <v>3387</v>
       </c>
       <c r="E1639" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1640" spans="1:5" ht="200" hidden="1">
+    <row r="1640" spans="1:5" ht="200">
       <c r="A1640" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1640" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D1640" s="1" t="s">
         <v>3388</v>
-      </c>
-      <c r="D1640" s="1" t="s">
-        <v>3389</v>
       </c>
       <c r="E1640" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1641" spans="1:5" ht="160" hidden="1">
+    <row r="1641" spans="1:5" ht="160">
       <c r="A1641" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1641" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D1641" s="1" t="s">
         <v>3390</v>
-      </c>
-      <c r="D1641" s="1" t="s">
-        <v>3391</v>
       </c>
       <c r="E1641" s="1" t="s">
         <v>10</v>
@@ -54614,33 +54615,33 @@
     </row>
     <row r="1642" spans="1:5" ht="140" hidden="1">
       <c r="A1642" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1642" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1642" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D1642" s="1" t="s">
         <v>3392</v>
-      </c>
-      <c r="D1642" s="1" t="s">
-        <v>3393</v>
       </c>
       <c r="E1642" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1643" spans="1:5" ht="120" hidden="1">
+    <row r="1643" spans="1:5" ht="120">
       <c r="A1643" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1643" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1643" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D1643" s="1" t="s">
         <v>3394</v>
-      </c>
-      <c r="D1643" s="1" t="s">
-        <v>3395</v>
       </c>
       <c r="E1643" s="1" t="s">
         <v>4</v>
@@ -54648,16 +54649,16 @@
     </row>
     <row r="1644" spans="1:5" ht="140" hidden="1">
       <c r="A1644" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1644" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1644" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D1644" s="1" t="s">
         <v>3396</v>
-      </c>
-      <c r="D1644" s="1" t="s">
-        <v>3397</v>
       </c>
       <c r="E1644" s="1" t="s">
         <v>24</v>
@@ -54665,50 +54666,50 @@
     </row>
     <row r="1645" spans="1:5" ht="120" hidden="1">
       <c r="A1645" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1645" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1645" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1645" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D1645" s="1" t="s">
         <v>3398</v>
-      </c>
-      <c r="D1645" s="1" t="s">
-        <v>3399</v>
       </c>
       <c r="E1645" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1646" spans="1:5" ht="180" hidden="1">
+    <row r="1646" spans="1:5" ht="180">
       <c r="A1646" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1646" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1646" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D1646" s="1" t="s">
         <v>3400</v>
-      </c>
-      <c r="D1646" s="1" t="s">
-        <v>3401</v>
       </c>
       <c r="E1646" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1647" spans="1:5" ht="140" hidden="1">
+    <row r="1647" spans="1:5" ht="140">
       <c r="A1647" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1647" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D1647" s="1" t="s">
         <v>3402</v>
-      </c>
-      <c r="D1647" s="1" t="s">
-        <v>3403</v>
       </c>
       <c r="E1647" s="1" t="s">
         <v>10</v>
@@ -54716,50 +54717,50 @@
     </row>
     <row r="1648" spans="1:5" ht="140" hidden="1">
       <c r="A1648" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1648" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1648" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1648" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1648" s="1" t="s">
         <v>3404</v>
-      </c>
-      <c r="D1648" s="1" t="s">
-        <v>3405</v>
       </c>
       <c r="E1648" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1649" spans="1:5" ht="120" hidden="1">
+    <row r="1649" spans="1:5" ht="120">
       <c r="A1649" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1649" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1649" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D1649" s="1" t="s">
         <v>3406</v>
-      </c>
-      <c r="D1649" s="1" t="s">
-        <v>3407</v>
       </c>
       <c r="E1649" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1650" spans="1:5" ht="160" hidden="1">
+    <row r="1650" spans="1:5" ht="160">
       <c r="A1650" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1650" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D1650" s="1" t="s">
         <v>3408</v>
-      </c>
-      <c r="D1650" s="1" t="s">
-        <v>3409</v>
       </c>
       <c r="E1650" s="1" t="s">
         <v>21</v>
@@ -54767,33 +54768,33 @@
     </row>
     <row r="1651" spans="1:5" ht="140" hidden="1">
       <c r="A1651" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1651" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1651" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1651" s="1" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D1651" s="1" t="s">
         <v>3410</v>
-      </c>
-      <c r="D1651" s="1" t="s">
-        <v>3411</v>
       </c>
       <c r="E1651" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1652" spans="1:5" ht="160" hidden="1">
+    <row r="1652" spans="1:5" ht="160">
       <c r="A1652" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1652" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D1652" s="1" t="s">
         <v>3412</v>
-      </c>
-      <c r="D1652" s="1" t="s">
-        <v>3413</v>
       </c>
       <c r="E1652" s="1" t="s">
         <v>21</v>
@@ -54801,33 +54802,33 @@
     </row>
     <row r="1653" spans="1:5" ht="160" hidden="1">
       <c r="A1653" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1653" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1653" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1653" s="1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="D1653" s="1" t="s">
         <v>3414</v>
-      </c>
-      <c r="D1653" s="1" t="s">
-        <v>3415</v>
       </c>
       <c r="E1653" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1654" spans="1:5" ht="120" hidden="1">
+    <row r="1654" spans="1:5" ht="120">
       <c r="A1654" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1654" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1654" s="1" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D1654" s="1" t="s">
         <v>3416</v>
-      </c>
-      <c r="D1654" s="1" t="s">
-        <v>3417</v>
       </c>
       <c r="E1654" s="1" t="s">
         <v>24</v>
@@ -54835,16 +54836,16 @@
     </row>
     <row r="1655" spans="1:5" ht="140" hidden="1">
       <c r="A1655" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1655" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1655" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1655" s="1" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D1655" s="1" t="s">
         <v>3418</v>
-      </c>
-      <c r="D1655" s="1" t="s">
-        <v>3419</v>
       </c>
       <c r="E1655" s="1" t="s">
         <v>4</v>
@@ -54852,33 +54853,33 @@
     </row>
     <row r="1656" spans="1:5" ht="120" hidden="1">
       <c r="A1656" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1656" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1656" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1656" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D1656" s="1" t="s">
         <v>3420</v>
-      </c>
-      <c r="D1656" s="1" t="s">
-        <v>3421</v>
       </c>
       <c r="E1656" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1657" spans="1:5" ht="140" hidden="1">
+    <row r="1657" spans="1:5" ht="140">
       <c r="A1657" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1657" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D1657" s="1" t="s">
         <v>3422</v>
-      </c>
-      <c r="D1657" s="1" t="s">
-        <v>3423</v>
       </c>
       <c r="E1657" s="1" t="s">
         <v>10</v>
@@ -54886,16 +54887,16 @@
     </row>
     <row r="1658" spans="1:5" ht="140" hidden="1">
       <c r="A1658" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1658" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1658" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1658" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D1658" s="1" t="s">
         <v>3424</v>
-      </c>
-      <c r="D1658" s="1" t="s">
-        <v>3425</v>
       </c>
       <c r="E1658" s="1" t="s">
         <v>24</v>
@@ -54903,16 +54904,16 @@
     </row>
     <row r="1659" spans="1:5" ht="240" hidden="1">
       <c r="A1659" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1659" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1659" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1659" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D1659" s="1" t="s">
         <v>3426</v>
-      </c>
-      <c r="D1659" s="1" t="s">
-        <v>3427</v>
       </c>
       <c r="E1659" s="1" t="s">
         <v>10</v>
@@ -54920,16 +54921,16 @@
     </row>
     <row r="1660" spans="1:5" ht="140" hidden="1">
       <c r="A1660" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1660" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1660" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1660" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D1660" s="1" t="s">
         <v>3428</v>
-      </c>
-      <c r="D1660" s="1" t="s">
-        <v>3429</v>
       </c>
       <c r="E1660" s="1" t="s">
         <v>10</v>
@@ -54937,84 +54938,84 @@
     </row>
     <row r="1661" spans="1:5" ht="200" hidden="1">
       <c r="A1661" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1661" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1661" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1661" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D1661" s="1" t="s">
         <v>3430</v>
-      </c>
-      <c r="D1661" s="1" t="s">
-        <v>3431</v>
       </c>
       <c r="E1661" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1662" spans="1:5" ht="160" hidden="1">
+    <row r="1662" spans="1:5" ht="160">
       <c r="A1662" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1662" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D1662" s="1" t="s">
         <v>3432</v>
-      </c>
-      <c r="D1662" s="1" t="s">
-        <v>3433</v>
       </c>
       <c r="E1662" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1663" spans="1:5" ht="180" hidden="1">
+    <row r="1663" spans="1:5" ht="180">
       <c r="A1663" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1663" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1663" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D1663" s="1" t="s">
         <v>3434</v>
-      </c>
-      <c r="D1663" s="1" t="s">
-        <v>3435</v>
       </c>
       <c r="E1663" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1664" spans="1:5" ht="240" hidden="1">
+    <row r="1664" spans="1:5" ht="240">
       <c r="A1664" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1664" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D1664" s="1" t="s">
         <v>3436</v>
-      </c>
-      <c r="D1664" s="1" t="s">
-        <v>3437</v>
       </c>
       <c r="E1664" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1665" spans="1:5" ht="140" hidden="1">
+    <row r="1665" spans="1:5" ht="140">
       <c r="A1665" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1665" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1665" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D1665" s="1" t="s">
         <v>3438</v>
-      </c>
-      <c r="D1665" s="1" t="s">
-        <v>3439</v>
       </c>
       <c r="E1665" s="1" t="s">
         <v>24</v>
@@ -55022,33 +55023,33 @@
     </row>
     <row r="1666" spans="1:5" ht="140" hidden="1">
       <c r="A1666" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1666" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1666" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1666" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D1666" s="1" t="s">
         <v>3440</v>
-      </c>
-      <c r="D1666" s="1" t="s">
-        <v>3441</v>
       </c>
       <c r="E1666" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1667" spans="1:5" ht="160" hidden="1">
+    <row r="1667" spans="1:5" ht="160">
       <c r="A1667" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1667" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1667" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="D1667" s="1" t="s">
         <v>3442</v>
-      </c>
-      <c r="D1667" s="1" t="s">
-        <v>3443</v>
       </c>
       <c r="E1667" s="1" t="s">
         <v>4</v>
@@ -55056,16 +55057,16 @@
     </row>
     <row r="1668" spans="1:5" ht="140" hidden="1">
       <c r="A1668" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1668" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1668" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1668" s="1" t="s">
+        <v>3443</v>
+      </c>
+      <c r="D1668" s="1" t="s">
         <v>3444</v>
-      </c>
-      <c r="D1668" s="1" t="s">
-        <v>3445</v>
       </c>
       <c r="E1668" s="1" t="s">
         <v>10</v>
@@ -55073,16 +55074,16 @@
     </row>
     <row r="1669" spans="1:5" ht="180" hidden="1">
       <c r="A1669" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1669" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1669" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1669" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D1669" s="1" t="s">
         <v>3446</v>
-      </c>
-      <c r="D1669" s="1" t="s">
-        <v>3447</v>
       </c>
       <c r="E1669" s="1" t="s">
         <v>10</v>
@@ -55090,16 +55091,16 @@
     </row>
     <row r="1670" spans="1:5" ht="140" hidden="1">
       <c r="A1670" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1670" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1670" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1670" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D1670" s="1" t="s">
         <v>3448</v>
-      </c>
-      <c r="D1670" s="1" t="s">
-        <v>3449</v>
       </c>
       <c r="E1670" s="1" t="s">
         <v>21</v>
@@ -55107,84 +55108,84 @@
     </row>
     <row r="1671" spans="1:5" ht="160" hidden="1">
       <c r="A1671" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1671" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1671" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1671" s="1" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D1671" s="1" t="s">
         <v>3450</v>
-      </c>
-      <c r="D1671" s="1" t="s">
-        <v>3451</v>
       </c>
       <c r="E1671" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1672" spans="1:5" ht="180" hidden="1">
+    <row r="1672" spans="1:5" ht="180">
       <c r="A1672" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1672" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1672" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1672" s="1" t="s">
         <v>3452</v>
-      </c>
-      <c r="D1672" s="1" t="s">
-        <v>3453</v>
       </c>
       <c r="E1672" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1673" spans="1:5" ht="240" hidden="1">
+    <row r="1673" spans="1:5" ht="240">
       <c r="A1673" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1673" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1673" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D1673" s="1" t="s">
         <v>3454</v>
-      </c>
-      <c r="D1673" s="1" t="s">
-        <v>3455</v>
       </c>
       <c r="E1673" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1674" spans="1:5" ht="200" hidden="1">
+    <row r="1674" spans="1:5" ht="200">
       <c r="A1674" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1674" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1674" s="1" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D1674" s="1" t="s">
         <v>3456</v>
-      </c>
-      <c r="D1674" s="1" t="s">
-        <v>3457</v>
       </c>
       <c r="E1674" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1675" spans="1:5" ht="160" hidden="1">
+    <row r="1675" spans="1:5" ht="160">
       <c r="A1675" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1675" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1675" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D1675" s="1" t="s">
         <v>3458</v>
-      </c>
-      <c r="D1675" s="1" t="s">
-        <v>3459</v>
       </c>
       <c r="E1675" s="1" t="s">
         <v>10</v>
@@ -55192,16 +55193,16 @@
     </row>
     <row r="1676" spans="1:5" ht="140" hidden="1">
       <c r="A1676" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1676" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1676" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1676" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D1676" s="1" t="s">
         <v>3460</v>
-      </c>
-      <c r="D1676" s="1" t="s">
-        <v>3461</v>
       </c>
       <c r="E1676" s="1" t="s">
         <v>21</v>
@@ -55209,16 +55210,16 @@
     </row>
     <row r="1677" spans="1:5" ht="120" hidden="1">
       <c r="A1677" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1677" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1677" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1677" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D1677" s="1" t="s">
         <v>3462</v>
-      </c>
-      <c r="D1677" s="1" t="s">
-        <v>3463</v>
       </c>
       <c r="E1677" s="1" t="s">
         <v>24</v>
@@ -55226,16 +55227,16 @@
     </row>
     <row r="1678" spans="1:5" ht="140" hidden="1">
       <c r="A1678" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1678" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1678" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1678" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="D1678" s="1" t="s">
         <v>3464</v>
-      </c>
-      <c r="D1678" s="1" t="s">
-        <v>3465</v>
       </c>
       <c r="E1678" s="1" t="s">
         <v>21</v>
@@ -55243,16 +55244,16 @@
     </row>
     <row r="1679" spans="1:5" ht="140" hidden="1">
       <c r="A1679" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B1679" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="C1679" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D1679" s="1" t="s">
         <v>3466</v>
-      </c>
-      <c r="D1679" s="1" t="s">
-        <v>3467</v>
       </c>
       <c r="E1679" s="1" t="s">
         <v>10</v>
@@ -55260,16 +55261,16 @@
     </row>
     <row r="1680" spans="1:5" ht="140" hidden="1">
       <c r="A1680" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B1680" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="B1680" s="1" t="s">
-        <v>3267</v>
-      </c>
       <c r="C1680" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="D1680" s="1" t="s">
         <v>3468</v>
-      </c>
-      <c r="D1680" s="1" t="s">
-        <v>3469</v>
       </c>
       <c r="E1680" s="1" t="s">
         <v>10</v>
@@ -55277,9 +55278,29 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1680" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="engineering.csv"/>
+        <filter val="stemez-Biology"/>
+        <filter val="stemez-Business"/>
+        <filter val="stemez-Chemistry"/>
+        <filter val="stemez-ComputerScience"/>
+        <filter val="stemez-Economics"/>
+        <filter val="stemez-ElectricalMachines"/>
+        <filter val="stemez-ElectricCircuits"/>
+        <filter val="stemez-Electromagnetics"/>
+        <filter val="stemez-ElectronicCommunications"/>
+        <filter val="stemez-FluidMechanics"/>
+        <filter val="stemez-Genetics"/>
+        <filter val="stemez-HeatTransfer"/>
+        <filter val="stemez-MachineDesign"/>
+        <filter val="stemez-Mechanics"/>
+        <filter val="stemez-Optics"/>
+        <filter val="stemez-OrganicChemistry"/>
+        <filter val="stemez-PhysicalChemistry"/>
+        <filter val="stemez-Physics"/>
+        <filter val="stemez-Psychology"/>
+        <filter val="stemez-Thermodynamics"/>
+        <filter val="stemez-TransportPhenomena"/>
       </filters>
     </filterColumn>
   </autoFilter>
